--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.989423595039871</v>
+        <v>0.9894235950398721</v>
       </c>
       <c r="D2">
-        <v>1.008870178620749</v>
+        <v>1.00887017862075</v>
       </c>
       <c r="E2">
-        <v>0.9563277997603545</v>
+        <v>0.9563277997603551</v>
       </c>
       <c r="F2">
-        <v>0.9822997266204865</v>
+        <v>0.9822997266204875</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039907164221233</v>
       </c>
       <c r="J2">
-        <v>1.011925312901308</v>
+        <v>1.011925312901309</v>
       </c>
       <c r="K2">
-        <v>1.020207305615681</v>
+        <v>1.020207305615682</v>
       </c>
       <c r="L2">
-        <v>0.9684310584041618</v>
+        <v>0.9684310584041625</v>
       </c>
       <c r="M2">
-        <v>0.9940112891898055</v>
+        <v>0.9940112891898065</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995405960570569</v>
+        <v>0.9995405960570574</v>
       </c>
       <c r="D3">
         <v>1.016964940847938</v>
       </c>
       <c r="E3">
-        <v>0.9657951554433688</v>
+        <v>0.9657951554433687</v>
       </c>
       <c r="F3">
-        <v>0.9930420367513328</v>
+        <v>0.9930420367513331</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>1.020043792726788</v>
       </c>
       <c r="K3">
-        <v>1.027385257972687</v>
+        <v>1.027385257972686</v>
       </c>
       <c r="L3">
         <v>0.976885245671139</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005795973583182</v>
+        <v>1.00579597358318</v>
       </c>
       <c r="D4">
-        <v>1.02197042756</v>
+        <v>1.021970427559999</v>
       </c>
       <c r="E4">
-        <v>0.9716025128323398</v>
+        <v>0.9716025128323383</v>
       </c>
       <c r="F4">
-        <v>0.9996610020292664</v>
+        <v>0.9996610020292649</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046268928315019</v>
       </c>
       <c r="J4">
-        <v>1.025052570866996</v>
+        <v>1.025052570866994</v>
       </c>
       <c r="K4">
-        <v>1.031810727536302</v>
+        <v>1.0318107275363</v>
       </c>
       <c r="L4">
-        <v>0.9820562000108535</v>
+        <v>0.9820562000108523</v>
       </c>
       <c r="M4">
-        <v>1.009763520180432</v>
+        <v>1.009763520180431</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008361995279729</v>
+        <v>1.008361995279731</v>
       </c>
       <c r="D5">
-        <v>1.024023725426865</v>
+        <v>1.024023725426867</v>
       </c>
       <c r="E5">
-        <v>0.9739743490566916</v>
+        <v>0.9739743490566926</v>
       </c>
       <c r="F5">
-        <v>1.002371158857132</v>
+        <v>1.002371158857134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04725655655373</v>
+        <v>1.047256556553731</v>
       </c>
       <c r="J5">
-        <v>1.027104620144847</v>
+        <v>1.027104620144848</v>
       </c>
       <c r="K5">
-        <v>1.033623045171998</v>
+        <v>1.033623045171999</v>
       </c>
       <c r="L5">
-        <v>0.9841645929853265</v>
+        <v>0.9841645929853275</v>
       </c>
       <c r="M5">
-        <v>1.012217165980897</v>
+        <v>1.012217165980899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008789260878824</v>
+        <v>1.008789260878825</v>
       </c>
       <c r="D6">
-        <v>1.024365614365975</v>
+        <v>1.024365614365976</v>
       </c>
       <c r="E6">
-        <v>0.9743686876098175</v>
+        <v>0.974368687609818</v>
       </c>
       <c r="F6">
-        <v>1.002822142847638</v>
+        <v>1.002822142847639</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047420733560758</v>
+        <v>1.047420733560759</v>
       </c>
       <c r="J6">
-        <v>1.027446151724513</v>
+        <v>1.027446151724514</v>
       </c>
       <c r="K6">
-        <v>1.033924631951841</v>
+        <v>1.033924631951842</v>
       </c>
       <c r="L6">
-        <v>0.984514925732318</v>
+        <v>0.9845149257323185</v>
       </c>
       <c r="M6">
-        <v>1.012625314135443</v>
+        <v>1.012625314135444</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005830504126178</v>
+        <v>1.005830504126177</v>
       </c>
       <c r="D7">
-        <v>1.021998058630402</v>
+        <v>1.021998058630401</v>
       </c>
       <c r="E7">
-        <v>0.9716344706796362</v>
+        <v>0.9716344706796357</v>
       </c>
       <c r="F7">
-        <v>0.9996974914453647</v>
+        <v>0.9996974914453641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046282236994136</v>
+        <v>1.046282236994135</v>
       </c>
       <c r="J7">
-        <v>1.025080195291074</v>
+        <v>1.025080195291072</v>
       </c>
       <c r="K7">
-        <v>1.031835127758412</v>
+        <v>1.031835127758411</v>
       </c>
       <c r="L7">
-        <v>0.9820846222011743</v>
+        <v>0.9820846222011739</v>
       </c>
       <c r="M7">
-        <v>1.00979656615732</v>
+        <v>1.009796566157319</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929067853830142</v>
+        <v>0.9929067853830141</v>
       </c>
       <c r="D8">
         <v>1.011656954619936</v>
       </c>
       <c r="E8">
-        <v>0.9595976911270035</v>
+        <v>0.9595976911270031</v>
       </c>
       <c r="F8">
-        <v>0.986003468440216</v>
+        <v>0.9860034684402158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041268728385701</v>
+        <v>1.0412687283857</v>
       </c>
       <c r="J8">
         <v>1.01472276683433</v>
@@ -673,10 +673,10 @@
         <v>1.022681306674727</v>
       </c>
       <c r="L8">
-        <v>0.9713542517304926</v>
+        <v>0.9713542517304923</v>
       </c>
       <c r="M8">
-        <v>0.9973764299235303</v>
+        <v>0.9973764299235299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675825755244245</v>
+        <v>0.9675825755244225</v>
       </c>
       <c r="D9">
-        <v>0.9914038137763279</v>
+        <v>0.9914038137763261</v>
       </c>
       <c r="E9">
-        <v>0.9355781412828271</v>
+        <v>0.9355781412828261</v>
       </c>
       <c r="F9">
-        <v>0.9589447515780631</v>
+        <v>0.9589447515780612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031285416563799</v>
+        <v>1.031285416563798</v>
       </c>
       <c r="J9">
-        <v>0.9943344044803545</v>
+        <v>0.9943344044803527</v>
       </c>
       <c r="K9">
-        <v>1.004637914955129</v>
+        <v>1.004637914955128</v>
       </c>
       <c r="L9">
-        <v>0.949810701182221</v>
+        <v>0.9498107011822197</v>
       </c>
       <c r="M9">
-        <v>0.9727409991894739</v>
+        <v>0.9727409991894721</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.948411890850079</v>
+        <v>0.9484118908500774</v>
       </c>
       <c r="D10">
-        <v>0.9760900581357634</v>
+        <v>0.9760900581357617</v>
       </c>
       <c r="E10">
-        <v>0.9170120848995121</v>
+        <v>0.9170120848995112</v>
       </c>
       <c r="F10">
-        <v>0.9382458204965398</v>
+        <v>0.9382458204965384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02361893552958</v>
+        <v>1.023618935529579</v>
       </c>
       <c r="J10">
-        <v>0.9788331231814443</v>
+        <v>0.9788331231814424</v>
       </c>
       <c r="K10">
-        <v>0.9909048633498138</v>
+        <v>0.9909048633498121</v>
       </c>
       <c r="L10">
-        <v>0.9330608671367815</v>
+        <v>0.9330608671367807</v>
       </c>
       <c r="M10">
-        <v>0.9538273804302413</v>
+        <v>0.9538273804302395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9393882170571394</v>
+        <v>0.9393882170571402</v>
       </c>
       <c r="D11">
-        <v>0.968889166148173</v>
+        <v>0.9688891661481734</v>
       </c>
       <c r="E11">
-        <v>0.9081546803256882</v>
+        <v>0.9081546803256887</v>
       </c>
       <c r="F11">
-        <v>0.9284321792242697</v>
+        <v>0.9284321792242705</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019984521021491</v>
+        <v>1.019984521021492</v>
       </c>
       <c r="J11">
-        <v>0.9715195508186641</v>
+        <v>0.9715195508186648</v>
       </c>
       <c r="K11">
-        <v>0.9844226436112018</v>
+        <v>0.9844226436112024</v>
       </c>
       <c r="L11">
-        <v>0.925044719627343</v>
+        <v>0.9250447196273434</v>
       </c>
       <c r="M11">
-        <v>0.9448429291140135</v>
+        <v>0.9448429291140141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9359067482298093</v>
+        <v>0.9359067482298081</v>
       </c>
       <c r="D12">
-        <v>0.9661123607422765</v>
+        <v>0.9661123607422754</v>
       </c>
       <c r="E12">
-        <v>0.9047163798805394</v>
+        <v>0.9047163798805383</v>
       </c>
       <c r="F12">
-        <v>0.9246330293118646</v>
+        <v>0.9246330293118632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018578445184088</v>
+        <v>1.018578445184087</v>
       </c>
       <c r="J12">
-        <v>0.9686951515995836</v>
+        <v>0.9686951515995824</v>
       </c>
       <c r="K12">
-        <v>0.9819189243011169</v>
+        <v>0.9819189243011158</v>
       </c>
       <c r="L12">
-        <v>0.9219289894009414</v>
+        <v>0.9219289894009405</v>
       </c>
       <c r="M12">
-        <v>0.941362096089721</v>
+        <v>0.9413620960897195</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9366598135614747</v>
+        <v>0.936659813561476</v>
       </c>
       <c r="D13">
-        <v>0.9667129338511307</v>
+        <v>0.9667129338511321</v>
       </c>
       <c r="E13">
-        <v>0.9054611137182783</v>
+        <v>0.9054611137182795</v>
       </c>
       <c r="F13">
-        <v>0.9254554360236189</v>
+        <v>0.9254554360236206</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018882762733111</v>
+        <v>1.018882762733112</v>
       </c>
       <c r="J13">
-        <v>0.9693062133644297</v>
+        <v>0.9693062133644311</v>
       </c>
       <c r="K13">
-        <v>0.9824606225222312</v>
+        <v>0.9824606225222327</v>
       </c>
       <c r="L13">
-        <v>0.9226040378544191</v>
+        <v>0.9226040378544204</v>
       </c>
       <c r="M13">
-        <v>0.9421157188811745</v>
+        <v>0.9421157188811763</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.939103228386271</v>
+        <v>0.9391032283862731</v>
       </c>
       <c r="D14">
-        <v>0.9686618300697716</v>
+        <v>0.9686618300697736</v>
       </c>
       <c r="E14">
-        <v>0.9078736698797479</v>
+        <v>0.9078736698797497</v>
       </c>
       <c r="F14">
-        <v>0.9281214610662019</v>
+        <v>0.9281214610662041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019869499237815</v>
+        <v>1.019869499237816</v>
       </c>
       <c r="J14">
-        <v>0.9712884047408229</v>
+        <v>0.9712884047408247</v>
       </c>
       <c r="K14">
-        <v>0.98421774887851</v>
+        <v>0.9842177488785115</v>
       </c>
       <c r="L14">
-        <v>0.9247901542324773</v>
+        <v>0.9247901542324791</v>
       </c>
       <c r="M14">
-        <v>0.9445582995651215</v>
+        <v>0.9445582995651235</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9405907730693235</v>
+        <v>0.9405907730693249</v>
       </c>
       <c r="D15">
-        <v>0.9698485063267819</v>
+        <v>0.9698485063267829</v>
       </c>
       <c r="E15">
-        <v>0.9093395824021911</v>
+        <v>0.9093395824021931</v>
       </c>
       <c r="F15">
-        <v>0.9297427696778015</v>
+        <v>0.9297427696778032</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020469718402468</v>
       </c>
       <c r="J15">
-        <v>0.9724947988831364</v>
+        <v>0.9724947988831378</v>
       </c>
       <c r="K15">
-        <v>0.985287117586511</v>
+        <v>0.9852871175865123</v>
       </c>
       <c r="L15">
-        <v>0.9261179523078289</v>
+        <v>0.9261179523078308</v>
       </c>
       <c r="M15">
-        <v>0.946043370626065</v>
+        <v>0.9460433706260667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.948993874184118</v>
+        <v>0.9489938741841158</v>
       </c>
       <c r="D16">
-        <v>0.9765546539639085</v>
+        <v>0.9765546539639064</v>
       </c>
       <c r="E16">
-        <v>0.9175806950560228</v>
+        <v>0.917580695056021</v>
       </c>
       <c r="F16">
-        <v>0.9388771428248105</v>
+        <v>0.9388771428248081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023852814369178</v>
+        <v>1.023852814369176</v>
       </c>
       <c r="J16">
-        <v>0.9793044549277146</v>
+        <v>0.9793044549277126</v>
       </c>
       <c r="K16">
-        <v>0.9913225632915745</v>
+        <v>0.9913225632915724</v>
       </c>
       <c r="L16">
-        <v>0.9335749462704266</v>
+        <v>0.9335749462704249</v>
       </c>
       <c r="M16">
-        <v>0.9544050029165477</v>
+        <v>0.9544050029165452</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9540583786605735</v>
+        <v>0.954058378660572</v>
       </c>
       <c r="D17">
-        <v>0.9805984737951396</v>
+        <v>0.9805984737951381</v>
       </c>
       <c r="E17">
-        <v>0.922515493368066</v>
+        <v>0.9225154933680652</v>
       </c>
       <c r="F17">
-        <v>0.9443630141950481</v>
+        <v>0.9443630141950466</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025885219117183</v>
       </c>
       <c r="J17">
-        <v>0.9834041560410415</v>
+        <v>0.9834041560410403</v>
       </c>
       <c r="K17">
-        <v>0.9949554542430669</v>
+        <v>0.9949554542430659</v>
       </c>
       <c r="L17">
-        <v>0.9380337043789628</v>
+        <v>0.9380337043789619</v>
       </c>
       <c r="M17">
-        <v>0.95942234459422</v>
+        <v>0.9594223445942188</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9569443904627978</v>
+        <v>0.956944390462796</v>
       </c>
       <c r="D18">
-        <v>0.9829034970749089</v>
+        <v>0.9829034970749073</v>
       </c>
       <c r="E18">
-        <v>0.9253169856830925</v>
+        <v>0.9253169856830905</v>
       </c>
       <c r="F18">
-        <v>0.9474828407215822</v>
+        <v>0.9474828407215801</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02704102247849</v>
       </c>
       <c r="J18">
-        <v>0.9857388185403059</v>
+        <v>0.9857388185403041</v>
       </c>
       <c r="K18">
-        <v>0.9970240115930596</v>
+        <v>0.9970240115930583</v>
       </c>
       <c r="L18">
-        <v>0.9405626699301686</v>
+        <v>0.9405626699301668</v>
       </c>
       <c r="M18">
-        <v>0.96227414988427</v>
+        <v>0.9622741498842678</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9579174521422446</v>
+        <v>0.957917452142246</v>
       </c>
       <c r="D19">
-        <v>0.9836807719543126</v>
+        <v>0.983680771954314</v>
       </c>
       <c r="E19">
-        <v>0.9262598287027968</v>
+        <v>0.9262598287027978</v>
       </c>
       <c r="F19">
-        <v>0.9485337230438622</v>
+        <v>0.9485337230438633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027430317181722</v>
+        <v>1.027430317181723</v>
       </c>
       <c r="J19">
-        <v>0.986525724069427</v>
+        <v>0.9865257240694282</v>
       </c>
       <c r="K19">
-        <v>0.9977211781186526</v>
+        <v>0.997721178118654</v>
       </c>
       <c r="L19">
-        <v>0.9414134126615739</v>
+        <v>0.941413412661575</v>
       </c>
       <c r="M19">
-        <v>0.9632344884626618</v>
+        <v>0.9632344884626629</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535221747730643</v>
+        <v>0.9535221747730652</v>
       </c>
       <c r="D20">
-        <v>0.9801702650480477</v>
+        <v>0.9801702650480487</v>
       </c>
       <c r="E20">
-        <v>0.9219941481274809</v>
+        <v>0.9219941481274814</v>
       </c>
       <c r="F20">
-        <v>0.9437828694608369</v>
+        <v>0.9437828694608379</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02567028506705</v>
+        <v>1.025670285067051</v>
       </c>
       <c r="J20">
-        <v>0.9829702637453072</v>
+        <v>0.982970263745308</v>
       </c>
       <c r="K20">
-        <v>0.9945709946598537</v>
+        <v>0.9945709946598547</v>
       </c>
       <c r="L20">
-        <v>0.9375628905525965</v>
+        <v>0.9375628905525969</v>
       </c>
       <c r="M20">
-        <v>0.9588919123478089</v>
+        <v>0.9588919123478101</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383874853342654</v>
+        <v>0.9383874853342656</v>
       </c>
       <c r="D21">
-        <v>0.9680909039259282</v>
+        <v>0.9680909039259283</v>
       </c>
       <c r="E21">
-        <v>0.9071675697800274</v>
+        <v>0.9071675697800288</v>
       </c>
       <c r="F21">
-        <v>0.9273408835533434</v>
+        <v>0.9273408835533441</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019580562646957</v>
       </c>
       <c r="J21">
-        <v>0.9707078422256863</v>
+        <v>0.9707078422256865</v>
       </c>
       <c r="K21">
-        <v>0.9837031152540743</v>
+        <v>0.9837031152540745</v>
       </c>
       <c r="L21">
-        <v>0.924150438573333</v>
+        <v>0.9241504385733342</v>
       </c>
       <c r="M21">
-        <v>0.9438432178309168</v>
+        <v>0.9438432178309175</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9281056308419454</v>
+        <v>0.9281056308419466</v>
       </c>
       <c r="D22">
-        <v>0.9598932320772599</v>
+        <v>0.9598932320772608</v>
       </c>
       <c r="E22">
-        <v>0.8969683277117587</v>
+        <v>0.8969683277117607</v>
       </c>
       <c r="F22">
-        <v>0.9160927633116224</v>
+        <v>0.916092763311624</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015420576569714</v>
+        <v>1.015420576569715</v>
       </c>
       <c r="J22">
-        <v>0.9623610889335793</v>
+        <v>0.9623610889335805</v>
       </c>
       <c r="K22">
-        <v>0.9763033993094806</v>
+        <v>0.9763033993094815</v>
       </c>
       <c r="L22">
-        <v>0.9149001079931317</v>
+        <v>0.9149001079931334</v>
       </c>
       <c r="M22">
-        <v>0.9335322509514851</v>
+        <v>0.9335322509514867</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9336377593430195</v>
+        <v>0.9336377593430216</v>
       </c>
       <c r="D23">
-        <v>0.9643030645180946</v>
+        <v>0.9643030645180966</v>
       </c>
       <c r="E23">
-        <v>0.9024691075160726</v>
+        <v>0.9024691075160746</v>
       </c>
       <c r="F23">
-        <v>0.9221530018059253</v>
+        <v>0.9221530018059277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017660968381626</v>
+        <v>1.017660968381627</v>
       </c>
       <c r="J23">
-        <v>0.9668536070810916</v>
+        <v>0.9668536070810937</v>
       </c>
       <c r="K23">
-        <v>0.9802863691665253</v>
+        <v>0.9802863691665273</v>
       </c>
       <c r="L23">
-        <v>0.9198913922489814</v>
+        <v>0.9198913922489832</v>
       </c>
       <c r="M23">
-        <v>0.9390890888887554</v>
+        <v>0.9390890888887578</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537646709334953</v>
+        <v>0.9537646709334948</v>
       </c>
       <c r="D24">
-        <v>0.9803639188140856</v>
+        <v>0.9803639188140854</v>
       </c>
       <c r="E24">
-        <v>0.9222299573974984</v>
+        <v>0.9222299573974975</v>
       </c>
       <c r="F24">
-        <v>0.9440452572072838</v>
+        <v>0.9440452572072832</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025767495548172</v>
       </c>
       <c r="J24">
-        <v>0.983166494722679</v>
+        <v>0.9831664947226786</v>
       </c>
       <c r="K24">
-        <v>0.9947448701772998</v>
+        <v>0.9947448701772995</v>
       </c>
       <c r="L24">
-        <v>0.9377758511023531</v>
+        <v>0.9377758511023521</v>
       </c>
       <c r="M24">
-        <v>0.9591318210283861</v>
+        <v>0.9591318210283852</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744830878911074</v>
+        <v>0.9744830878911069</v>
       </c>
       <c r="D25">
-        <v>0.9969203663720101</v>
+        <v>0.9969203663720096</v>
       </c>
       <c r="E25">
-        <v>0.9421797055478696</v>
+        <v>0.942179705547869</v>
       </c>
       <c r="F25">
-        <v>0.9663486307690086</v>
+        <v>0.9663486307690083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034023843833069</v>
+        <v>1.034023843833068</v>
       </c>
       <c r="J25">
-        <v>0.9999008068211422</v>
+        <v>0.9999008068211418</v>
       </c>
       <c r="K25">
         <v>1.009566678548004</v>
       </c>
       <c r="L25">
-        <v>0.9557472261065516</v>
+        <v>0.9557472261065513</v>
       </c>
       <c r="M25">
-        <v>0.9794928150307808</v>
+        <v>0.9794928150307806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9894235950398721</v>
+        <v>0.989423595039871</v>
       </c>
       <c r="D2">
-        <v>1.00887017862075</v>
+        <v>1.008870178620749</v>
       </c>
       <c r="E2">
-        <v>0.9563277997603551</v>
+        <v>0.9563277997603545</v>
       </c>
       <c r="F2">
-        <v>0.9822997266204875</v>
+        <v>0.9822997266204865</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039907164221233</v>
       </c>
       <c r="J2">
-        <v>1.011925312901309</v>
+        <v>1.011925312901308</v>
       </c>
       <c r="K2">
-        <v>1.020207305615682</v>
+        <v>1.020207305615681</v>
       </c>
       <c r="L2">
-        <v>0.9684310584041625</v>
+        <v>0.9684310584041618</v>
       </c>
       <c r="M2">
-        <v>0.9940112891898065</v>
+        <v>0.9940112891898055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995405960570574</v>
+        <v>0.9995405960570569</v>
       </c>
       <c r="D3">
         <v>1.016964940847938</v>
       </c>
       <c r="E3">
-        <v>0.9657951554433687</v>
+        <v>0.9657951554433688</v>
       </c>
       <c r="F3">
-        <v>0.9930420367513331</v>
+        <v>0.9930420367513328</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>1.020043792726788</v>
       </c>
       <c r="K3">
-        <v>1.027385257972686</v>
+        <v>1.027385257972687</v>
       </c>
       <c r="L3">
         <v>0.976885245671139</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00579597358318</v>
+        <v>1.005795973583182</v>
       </c>
       <c r="D4">
-        <v>1.021970427559999</v>
+        <v>1.02197042756</v>
       </c>
       <c r="E4">
-        <v>0.9716025128323383</v>
+        <v>0.9716025128323398</v>
       </c>
       <c r="F4">
-        <v>0.9996610020292649</v>
+        <v>0.9996610020292664</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046268928315019</v>
       </c>
       <c r="J4">
-        <v>1.025052570866994</v>
+        <v>1.025052570866996</v>
       </c>
       <c r="K4">
-        <v>1.0318107275363</v>
+        <v>1.031810727536302</v>
       </c>
       <c r="L4">
-        <v>0.9820562000108523</v>
+        <v>0.9820562000108535</v>
       </c>
       <c r="M4">
-        <v>1.009763520180431</v>
+        <v>1.009763520180432</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008361995279731</v>
+        <v>1.008361995279729</v>
       </c>
       <c r="D5">
-        <v>1.024023725426867</v>
+        <v>1.024023725426865</v>
       </c>
       <c r="E5">
-        <v>0.9739743490566926</v>
+        <v>0.9739743490566916</v>
       </c>
       <c r="F5">
-        <v>1.002371158857134</v>
+        <v>1.002371158857132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047256556553731</v>
+        <v>1.04725655655373</v>
       </c>
       <c r="J5">
-        <v>1.027104620144848</v>
+        <v>1.027104620144847</v>
       </c>
       <c r="K5">
-        <v>1.033623045171999</v>
+        <v>1.033623045171998</v>
       </c>
       <c r="L5">
-        <v>0.9841645929853275</v>
+        <v>0.9841645929853265</v>
       </c>
       <c r="M5">
-        <v>1.012217165980899</v>
+        <v>1.012217165980897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008789260878825</v>
+        <v>1.008789260878824</v>
       </c>
       <c r="D6">
-        <v>1.024365614365976</v>
+        <v>1.024365614365975</v>
       </c>
       <c r="E6">
-        <v>0.974368687609818</v>
+        <v>0.9743686876098175</v>
       </c>
       <c r="F6">
-        <v>1.002822142847639</v>
+        <v>1.002822142847638</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047420733560759</v>
+        <v>1.047420733560758</v>
       </c>
       <c r="J6">
-        <v>1.027446151724514</v>
+        <v>1.027446151724513</v>
       </c>
       <c r="K6">
-        <v>1.033924631951842</v>
+        <v>1.033924631951841</v>
       </c>
       <c r="L6">
-        <v>0.9845149257323185</v>
+        <v>0.984514925732318</v>
       </c>
       <c r="M6">
-        <v>1.012625314135444</v>
+        <v>1.012625314135443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005830504126177</v>
+        <v>1.005830504126178</v>
       </c>
       <c r="D7">
-        <v>1.021998058630401</v>
+        <v>1.021998058630402</v>
       </c>
       <c r="E7">
-        <v>0.9716344706796357</v>
+        <v>0.9716344706796362</v>
       </c>
       <c r="F7">
-        <v>0.9996974914453641</v>
+        <v>0.9996974914453647</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046282236994135</v>
+        <v>1.046282236994136</v>
       </c>
       <c r="J7">
-        <v>1.025080195291072</v>
+        <v>1.025080195291074</v>
       </c>
       <c r="K7">
-        <v>1.031835127758411</v>
+        <v>1.031835127758412</v>
       </c>
       <c r="L7">
-        <v>0.9820846222011739</v>
+        <v>0.9820846222011743</v>
       </c>
       <c r="M7">
-        <v>1.009796566157319</v>
+        <v>1.00979656615732</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929067853830141</v>
+        <v>0.9929067853830142</v>
       </c>
       <c r="D8">
         <v>1.011656954619936</v>
       </c>
       <c r="E8">
-        <v>0.9595976911270031</v>
+        <v>0.9595976911270035</v>
       </c>
       <c r="F8">
-        <v>0.9860034684402158</v>
+        <v>0.986003468440216</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0412687283857</v>
+        <v>1.041268728385701</v>
       </c>
       <c r="J8">
         <v>1.01472276683433</v>
@@ -673,10 +673,10 @@
         <v>1.022681306674727</v>
       </c>
       <c r="L8">
-        <v>0.9713542517304923</v>
+        <v>0.9713542517304926</v>
       </c>
       <c r="M8">
-        <v>0.9973764299235299</v>
+        <v>0.9973764299235303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675825755244225</v>
+        <v>0.9675825755244245</v>
       </c>
       <c r="D9">
-        <v>0.9914038137763261</v>
+        <v>0.9914038137763279</v>
       </c>
       <c r="E9">
-        <v>0.9355781412828261</v>
+        <v>0.9355781412828271</v>
       </c>
       <c r="F9">
-        <v>0.9589447515780612</v>
+        <v>0.9589447515780631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031285416563798</v>
+        <v>1.031285416563799</v>
       </c>
       <c r="J9">
-        <v>0.9943344044803527</v>
+        <v>0.9943344044803545</v>
       </c>
       <c r="K9">
-        <v>1.004637914955128</v>
+        <v>1.004637914955129</v>
       </c>
       <c r="L9">
-        <v>0.9498107011822197</v>
+        <v>0.949810701182221</v>
       </c>
       <c r="M9">
-        <v>0.9727409991894721</v>
+        <v>0.9727409991894739</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9484118908500774</v>
+        <v>0.948411890850079</v>
       </c>
       <c r="D10">
-        <v>0.9760900581357617</v>
+        <v>0.9760900581357634</v>
       </c>
       <c r="E10">
-        <v>0.9170120848995112</v>
+        <v>0.9170120848995121</v>
       </c>
       <c r="F10">
-        <v>0.9382458204965384</v>
+        <v>0.9382458204965398</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023618935529579</v>
+        <v>1.02361893552958</v>
       </c>
       <c r="J10">
-        <v>0.9788331231814424</v>
+        <v>0.9788331231814443</v>
       </c>
       <c r="K10">
-        <v>0.9909048633498121</v>
+        <v>0.9909048633498138</v>
       </c>
       <c r="L10">
-        <v>0.9330608671367807</v>
+        <v>0.9330608671367815</v>
       </c>
       <c r="M10">
-        <v>0.9538273804302395</v>
+        <v>0.9538273804302413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9393882170571402</v>
+        <v>0.9393882170571394</v>
       </c>
       <c r="D11">
-        <v>0.9688891661481734</v>
+        <v>0.968889166148173</v>
       </c>
       <c r="E11">
-        <v>0.9081546803256887</v>
+        <v>0.9081546803256882</v>
       </c>
       <c r="F11">
-        <v>0.9284321792242705</v>
+        <v>0.9284321792242697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019984521021492</v>
+        <v>1.019984521021491</v>
       </c>
       <c r="J11">
-        <v>0.9715195508186648</v>
+        <v>0.9715195508186641</v>
       </c>
       <c r="K11">
-        <v>0.9844226436112024</v>
+        <v>0.9844226436112018</v>
       </c>
       <c r="L11">
-        <v>0.9250447196273434</v>
+        <v>0.925044719627343</v>
       </c>
       <c r="M11">
-        <v>0.9448429291140141</v>
+        <v>0.9448429291140135</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9359067482298081</v>
+        <v>0.9359067482298093</v>
       </c>
       <c r="D12">
-        <v>0.9661123607422754</v>
+        <v>0.9661123607422765</v>
       </c>
       <c r="E12">
-        <v>0.9047163798805383</v>
+        <v>0.9047163798805394</v>
       </c>
       <c r="F12">
-        <v>0.9246330293118632</v>
+        <v>0.9246330293118646</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018578445184087</v>
+        <v>1.018578445184088</v>
       </c>
       <c r="J12">
-        <v>0.9686951515995824</v>
+        <v>0.9686951515995836</v>
       </c>
       <c r="K12">
-        <v>0.9819189243011158</v>
+        <v>0.9819189243011169</v>
       </c>
       <c r="L12">
-        <v>0.9219289894009405</v>
+        <v>0.9219289894009414</v>
       </c>
       <c r="M12">
-        <v>0.9413620960897195</v>
+        <v>0.941362096089721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.936659813561476</v>
+        <v>0.9366598135614747</v>
       </c>
       <c r="D13">
-        <v>0.9667129338511321</v>
+        <v>0.9667129338511307</v>
       </c>
       <c r="E13">
-        <v>0.9054611137182795</v>
+        <v>0.9054611137182783</v>
       </c>
       <c r="F13">
-        <v>0.9254554360236206</v>
+        <v>0.9254554360236189</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018882762733112</v>
+        <v>1.018882762733111</v>
       </c>
       <c r="J13">
-        <v>0.9693062133644311</v>
+        <v>0.9693062133644297</v>
       </c>
       <c r="K13">
-        <v>0.9824606225222327</v>
+        <v>0.9824606225222312</v>
       </c>
       <c r="L13">
-        <v>0.9226040378544204</v>
+        <v>0.9226040378544191</v>
       </c>
       <c r="M13">
-        <v>0.9421157188811763</v>
+        <v>0.9421157188811745</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9391032283862731</v>
+        <v>0.939103228386271</v>
       </c>
       <c r="D14">
-        <v>0.9686618300697736</v>
+        <v>0.9686618300697716</v>
       </c>
       <c r="E14">
-        <v>0.9078736698797497</v>
+        <v>0.9078736698797479</v>
       </c>
       <c r="F14">
-        <v>0.9281214610662041</v>
+        <v>0.9281214610662019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019869499237816</v>
+        <v>1.019869499237815</v>
       </c>
       <c r="J14">
-        <v>0.9712884047408247</v>
+        <v>0.9712884047408229</v>
       </c>
       <c r="K14">
-        <v>0.9842177488785115</v>
+        <v>0.98421774887851</v>
       </c>
       <c r="L14">
-        <v>0.9247901542324791</v>
+        <v>0.9247901542324773</v>
       </c>
       <c r="M14">
-        <v>0.9445582995651235</v>
+        <v>0.9445582995651215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9405907730693249</v>
+        <v>0.9405907730693235</v>
       </c>
       <c r="D15">
-        <v>0.9698485063267829</v>
+        <v>0.9698485063267819</v>
       </c>
       <c r="E15">
-        <v>0.9093395824021931</v>
+        <v>0.9093395824021911</v>
       </c>
       <c r="F15">
-        <v>0.9297427696778032</v>
+        <v>0.9297427696778015</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020469718402468</v>
       </c>
       <c r="J15">
-        <v>0.9724947988831378</v>
+        <v>0.9724947988831364</v>
       </c>
       <c r="K15">
-        <v>0.9852871175865123</v>
+        <v>0.985287117586511</v>
       </c>
       <c r="L15">
-        <v>0.9261179523078308</v>
+        <v>0.9261179523078289</v>
       </c>
       <c r="M15">
-        <v>0.9460433706260667</v>
+        <v>0.946043370626065</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9489938741841158</v>
+        <v>0.948993874184118</v>
       </c>
       <c r="D16">
-        <v>0.9765546539639064</v>
+        <v>0.9765546539639085</v>
       </c>
       <c r="E16">
-        <v>0.917580695056021</v>
+        <v>0.9175806950560228</v>
       </c>
       <c r="F16">
-        <v>0.9388771428248081</v>
+        <v>0.9388771428248105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023852814369176</v>
+        <v>1.023852814369178</v>
       </c>
       <c r="J16">
-        <v>0.9793044549277126</v>
+        <v>0.9793044549277146</v>
       </c>
       <c r="K16">
-        <v>0.9913225632915724</v>
+        <v>0.9913225632915745</v>
       </c>
       <c r="L16">
-        <v>0.9335749462704249</v>
+        <v>0.9335749462704266</v>
       </c>
       <c r="M16">
-        <v>0.9544050029165452</v>
+        <v>0.9544050029165477</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.954058378660572</v>
+        <v>0.9540583786605735</v>
       </c>
       <c r="D17">
-        <v>0.9805984737951381</v>
+        <v>0.9805984737951396</v>
       </c>
       <c r="E17">
-        <v>0.9225154933680652</v>
+        <v>0.922515493368066</v>
       </c>
       <c r="F17">
-        <v>0.9443630141950466</v>
+        <v>0.9443630141950481</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025885219117183</v>
       </c>
       <c r="J17">
-        <v>0.9834041560410403</v>
+        <v>0.9834041560410415</v>
       </c>
       <c r="K17">
-        <v>0.9949554542430659</v>
+        <v>0.9949554542430669</v>
       </c>
       <c r="L17">
-        <v>0.9380337043789619</v>
+        <v>0.9380337043789628</v>
       </c>
       <c r="M17">
-        <v>0.9594223445942188</v>
+        <v>0.95942234459422</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.956944390462796</v>
+        <v>0.9569443904627978</v>
       </c>
       <c r="D18">
-        <v>0.9829034970749073</v>
+        <v>0.9829034970749089</v>
       </c>
       <c r="E18">
-        <v>0.9253169856830905</v>
+        <v>0.9253169856830925</v>
       </c>
       <c r="F18">
-        <v>0.9474828407215801</v>
+        <v>0.9474828407215822</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02704102247849</v>
       </c>
       <c r="J18">
-        <v>0.9857388185403041</v>
+        <v>0.9857388185403059</v>
       </c>
       <c r="K18">
-        <v>0.9970240115930583</v>
+        <v>0.9970240115930596</v>
       </c>
       <c r="L18">
-        <v>0.9405626699301668</v>
+        <v>0.9405626699301686</v>
       </c>
       <c r="M18">
-        <v>0.9622741498842678</v>
+        <v>0.96227414988427</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.957917452142246</v>
+        <v>0.9579174521422446</v>
       </c>
       <c r="D19">
-        <v>0.983680771954314</v>
+        <v>0.9836807719543126</v>
       </c>
       <c r="E19">
-        <v>0.9262598287027978</v>
+        <v>0.9262598287027968</v>
       </c>
       <c r="F19">
-        <v>0.9485337230438633</v>
+        <v>0.9485337230438622</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027430317181723</v>
+        <v>1.027430317181722</v>
       </c>
       <c r="J19">
-        <v>0.9865257240694282</v>
+        <v>0.986525724069427</v>
       </c>
       <c r="K19">
-        <v>0.997721178118654</v>
+        <v>0.9977211781186526</v>
       </c>
       <c r="L19">
-        <v>0.941413412661575</v>
+        <v>0.9414134126615739</v>
       </c>
       <c r="M19">
-        <v>0.9632344884626629</v>
+        <v>0.9632344884626618</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535221747730652</v>
+        <v>0.9535221747730643</v>
       </c>
       <c r="D20">
-        <v>0.9801702650480487</v>
+        <v>0.9801702650480477</v>
       </c>
       <c r="E20">
-        <v>0.9219941481274814</v>
+        <v>0.9219941481274809</v>
       </c>
       <c r="F20">
-        <v>0.9437828694608379</v>
+        <v>0.9437828694608369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025670285067051</v>
+        <v>1.02567028506705</v>
       </c>
       <c r="J20">
-        <v>0.982970263745308</v>
+        <v>0.9829702637453072</v>
       </c>
       <c r="K20">
-        <v>0.9945709946598547</v>
+        <v>0.9945709946598537</v>
       </c>
       <c r="L20">
-        <v>0.9375628905525969</v>
+        <v>0.9375628905525965</v>
       </c>
       <c r="M20">
-        <v>0.9588919123478101</v>
+        <v>0.9588919123478089</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383874853342656</v>
+        <v>0.9383874853342654</v>
       </c>
       <c r="D21">
-        <v>0.9680909039259283</v>
+        <v>0.9680909039259282</v>
       </c>
       <c r="E21">
-        <v>0.9071675697800288</v>
+        <v>0.9071675697800274</v>
       </c>
       <c r="F21">
-        <v>0.9273408835533441</v>
+        <v>0.9273408835533434</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019580562646957</v>
       </c>
       <c r="J21">
-        <v>0.9707078422256865</v>
+        <v>0.9707078422256863</v>
       </c>
       <c r="K21">
-        <v>0.9837031152540745</v>
+        <v>0.9837031152540743</v>
       </c>
       <c r="L21">
-        <v>0.9241504385733342</v>
+        <v>0.924150438573333</v>
       </c>
       <c r="M21">
-        <v>0.9438432178309175</v>
+        <v>0.9438432178309168</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9281056308419466</v>
+        <v>0.9281056308419454</v>
       </c>
       <c r="D22">
-        <v>0.9598932320772608</v>
+        <v>0.9598932320772599</v>
       </c>
       <c r="E22">
-        <v>0.8969683277117607</v>
+        <v>0.8969683277117587</v>
       </c>
       <c r="F22">
-        <v>0.916092763311624</v>
+        <v>0.9160927633116224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015420576569715</v>
+        <v>1.015420576569714</v>
       </c>
       <c r="J22">
-        <v>0.9623610889335805</v>
+        <v>0.9623610889335793</v>
       </c>
       <c r="K22">
-        <v>0.9763033993094815</v>
+        <v>0.9763033993094806</v>
       </c>
       <c r="L22">
-        <v>0.9149001079931334</v>
+        <v>0.9149001079931317</v>
       </c>
       <c r="M22">
-        <v>0.9335322509514867</v>
+        <v>0.9335322509514851</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9336377593430216</v>
+        <v>0.9336377593430195</v>
       </c>
       <c r="D23">
-        <v>0.9643030645180966</v>
+        <v>0.9643030645180946</v>
       </c>
       <c r="E23">
-        <v>0.9024691075160746</v>
+        <v>0.9024691075160726</v>
       </c>
       <c r="F23">
-        <v>0.9221530018059277</v>
+        <v>0.9221530018059253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017660968381627</v>
+        <v>1.017660968381626</v>
       </c>
       <c r="J23">
-        <v>0.9668536070810937</v>
+        <v>0.9668536070810916</v>
       </c>
       <c r="K23">
-        <v>0.9802863691665273</v>
+        <v>0.9802863691665253</v>
       </c>
       <c r="L23">
-        <v>0.9198913922489832</v>
+        <v>0.9198913922489814</v>
       </c>
       <c r="M23">
-        <v>0.9390890888887578</v>
+        <v>0.9390890888887554</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537646709334948</v>
+        <v>0.9537646709334953</v>
       </c>
       <c r="D24">
-        <v>0.9803639188140854</v>
+        <v>0.9803639188140856</v>
       </c>
       <c r="E24">
-        <v>0.9222299573974975</v>
+        <v>0.9222299573974984</v>
       </c>
       <c r="F24">
-        <v>0.9440452572072832</v>
+        <v>0.9440452572072838</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025767495548172</v>
       </c>
       <c r="J24">
-        <v>0.9831664947226786</v>
+        <v>0.983166494722679</v>
       </c>
       <c r="K24">
-        <v>0.9947448701772995</v>
+        <v>0.9947448701772998</v>
       </c>
       <c r="L24">
-        <v>0.9377758511023521</v>
+        <v>0.9377758511023531</v>
       </c>
       <c r="M24">
-        <v>0.9591318210283852</v>
+        <v>0.9591318210283861</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744830878911069</v>
+        <v>0.9744830878911074</v>
       </c>
       <c r="D25">
-        <v>0.9969203663720096</v>
+        <v>0.9969203663720101</v>
       </c>
       <c r="E25">
-        <v>0.942179705547869</v>
+        <v>0.9421797055478696</v>
       </c>
       <c r="F25">
-        <v>0.9663486307690083</v>
+        <v>0.9663486307690086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034023843833068</v>
+        <v>1.034023843833069</v>
       </c>
       <c r="J25">
-        <v>0.9999008068211418</v>
+        <v>0.9999008068211422</v>
       </c>
       <c r="K25">
         <v>1.009566678548004</v>
       </c>
       <c r="L25">
-        <v>0.9557472261065513</v>
+        <v>0.9557472261065516</v>
       </c>
       <c r="M25">
-        <v>0.9794928150307806</v>
+        <v>0.9794928150307808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.989423595039871</v>
+        <v>0.9926584266124459</v>
       </c>
       <c r="D2">
-        <v>1.008870178620749</v>
+        <v>1.011495871898918</v>
       </c>
       <c r="E2">
-        <v>0.9563277997603545</v>
+        <v>0.9574601886624429</v>
       </c>
       <c r="F2">
-        <v>0.9822997266204865</v>
+        <v>0.9847897762896287</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039907164221233</v>
+        <v>1.041378391473699</v>
       </c>
       <c r="J2">
-        <v>1.011925312901308</v>
+        <v>1.015060962367015</v>
       </c>
       <c r="K2">
-        <v>1.020207305615681</v>
+        <v>1.022797340917442</v>
       </c>
       <c r="L2">
-        <v>0.9684310584041618</v>
+        <v>0.9695458029968185</v>
       </c>
       <c r="M2">
-        <v>0.9940112891898055</v>
+        <v>0.9964651612068738</v>
+      </c>
+      <c r="N2">
+        <v>1.016502465362696</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995405960570569</v>
+        <v>1.002743247548096</v>
       </c>
       <c r="D3">
-        <v>1.016964940847938</v>
+        <v>1.019568111904011</v>
       </c>
       <c r="E3">
-        <v>0.9657951554433688</v>
+        <v>0.9668995323930381</v>
       </c>
       <c r="F3">
-        <v>0.9930420367513328</v>
+        <v>0.9954973437718422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043850086234172</v>
+        <v>1.045310788834454</v>
       </c>
       <c r="J3">
-        <v>1.020043792726788</v>
+        <v>1.023159407205025</v>
       </c>
       <c r="K3">
-        <v>1.027385257972687</v>
+        <v>1.029956590649516</v>
       </c>
       <c r="L3">
-        <v>0.976885245671139</v>
+        <v>0.9779742231384713</v>
       </c>
       <c r="M3">
-        <v>1.003764727037416</v>
+        <v>1.00618816297288</v>
+      </c>
+      <c r="N3">
+        <v>1.024612410921281</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005795973583182</v>
+        <v>1.008980573237533</v>
       </c>
       <c r="D4">
-        <v>1.02197042756</v>
+        <v>1.024561077261332</v>
       </c>
       <c r="E4">
-        <v>0.9716025128323398</v>
+        <v>0.9726913772089644</v>
       </c>
       <c r="F4">
-        <v>0.9996610020292664</v>
+        <v>1.002096919982633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046268928315019</v>
+        <v>1.047723914360739</v>
       </c>
       <c r="J4">
-        <v>1.025052570866996</v>
+        <v>1.028157311767443</v>
       </c>
       <c r="K4">
-        <v>1.031810727536302</v>
+        <v>1.034371840431257</v>
       </c>
       <c r="L4">
-        <v>0.9820562000108535</v>
+        <v>0.9831309639371031</v>
       </c>
       <c r="M4">
-        <v>1.009763520180432</v>
+        <v>1.0121701027402</v>
+      </c>
+      <c r="N4">
+        <v>1.029617413081445</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008361995279729</v>
+        <v>1.011539580056372</v>
       </c>
       <c r="D5">
-        <v>1.024023725426865</v>
+        <v>1.026609536193779</v>
       </c>
       <c r="E5">
-        <v>0.9739743490566916</v>
+        <v>0.9750572273576456</v>
       </c>
       <c r="F5">
-        <v>1.002371158857132</v>
+        <v>1.004799562170077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04725655655373</v>
+        <v>1.048709366332027</v>
       </c>
       <c r="J5">
-        <v>1.027104620144847</v>
+        <v>1.030205221353857</v>
       </c>
       <c r="K5">
-        <v>1.033623045171998</v>
+        <v>1.036180250991634</v>
       </c>
       <c r="L5">
-        <v>0.9841645929853265</v>
+        <v>0.9852338859159534</v>
       </c>
       <c r="M5">
-        <v>1.012217165980897</v>
+        <v>1.014617248277312</v>
+      </c>
+      <c r="N5">
+        <v>1.03166823093437</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008789260878824</v>
+        <v>1.011965699229078</v>
       </c>
       <c r="D6">
-        <v>1.024365614365975</v>
+        <v>1.026950635901777</v>
       </c>
       <c r="E6">
-        <v>0.9743686876098175</v>
+        <v>0.9754505899526901</v>
       </c>
       <c r="F6">
-        <v>1.002822142847638</v>
+        <v>1.005249319128629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047420733560758</v>
+        <v>1.048873190362387</v>
       </c>
       <c r="J6">
-        <v>1.027446151724513</v>
+        <v>1.030546081425786</v>
       </c>
       <c r="K6">
-        <v>1.033924631951841</v>
+        <v>1.036481203036648</v>
       </c>
       <c r="L6">
-        <v>0.984514925732318</v>
+        <v>0.9855833275125367</v>
       </c>
       <c r="M6">
-        <v>1.012625314135443</v>
+        <v>1.015024336905001</v>
+      </c>
+      <c r="N6">
+        <v>1.032009575066698</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005830504126178</v>
+        <v>1.009015007896127</v>
       </c>
       <c r="D7">
-        <v>1.021998058630402</v>
+        <v>1.024588642081058</v>
       </c>
       <c r="E7">
-        <v>0.9716344706796362</v>
+        <v>0.9727232530710863</v>
       </c>
       <c r="F7">
-        <v>0.9996974914453647</v>
+        <v>1.002133306607638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046282236994136</v>
+        <v>1.04773719310937</v>
       </c>
       <c r="J7">
-        <v>1.025080195291074</v>
+        <v>1.028184879261565</v>
       </c>
       <c r="K7">
-        <v>1.031835127758412</v>
+        <v>1.034396186988708</v>
       </c>
       <c r="L7">
-        <v>0.9820846222011743</v>
+        <v>0.9831593111400816</v>
       </c>
       <c r="M7">
-        <v>1.00979656615732</v>
+        <v>1.012203059673112</v>
+      </c>
+      <c r="N7">
+        <v>1.02964501972457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929067853830142</v>
+        <v>0.9961301079122856</v>
       </c>
       <c r="D8">
-        <v>1.011656954619936</v>
+        <v>1.01427456700432</v>
       </c>
       <c r="E8">
-        <v>0.9595976911270035</v>
+        <v>0.9607200112403909</v>
       </c>
       <c r="F8">
-        <v>0.986003468440216</v>
+        <v>0.9884810666360464</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041268728385701</v>
+        <v>1.042736148905141</v>
       </c>
       <c r="J8">
-        <v>1.01472276683433</v>
+        <v>1.017851166184744</v>
       </c>
       <c r="K8">
-        <v>1.022681306674727</v>
+        <v>1.025264590425439</v>
       </c>
       <c r="L8">
-        <v>0.9713542517304926</v>
+        <v>0.9724597218519125</v>
       </c>
       <c r="M8">
-        <v>0.9973764299235303</v>
+        <v>0.9998193635297916</v>
+      </c>
+      <c r="N8">
+        <v>1.019296631589887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675825755244245</v>
+        <v>0.9709008435512533</v>
       </c>
       <c r="D9">
-        <v>0.9914038137763279</v>
+        <v>0.9940887323835778</v>
       </c>
       <c r="E9">
-        <v>0.9355781412828271</v>
+        <v>0.9367850574437395</v>
       </c>
       <c r="F9">
-        <v>0.9589447515780631</v>
+        <v>0.9615259036773334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031285416563799</v>
+        <v>1.032785265445701</v>
       </c>
       <c r="J9">
-        <v>0.9943344044803545</v>
+        <v>0.9975247378737221</v>
       </c>
       <c r="K9">
-        <v>1.004637914955129</v>
+        <v>1.007278449417405</v>
       </c>
       <c r="L9">
-        <v>0.949810701182221</v>
+        <v>0.9509943831660681</v>
       </c>
       <c r="M9">
-        <v>0.9727409991894739</v>
+        <v>0.9752756445874176</v>
+      </c>
+      <c r="N9">
+        <v>0.9989413374191892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.948411890850079</v>
+        <v>0.9518219537252666</v>
       </c>
       <c r="D10">
-        <v>0.9760900581357634</v>
+        <v>0.9788410436148401</v>
       </c>
       <c r="E10">
-        <v>0.9170120848995121</v>
+        <v>0.918303815143952</v>
       </c>
       <c r="F10">
-        <v>0.9382458204965398</v>
+        <v>0.9409288154974461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02361893552958</v>
+        <v>1.025151649116216</v>
       </c>
       <c r="J10">
-        <v>0.9788331231814443</v>
+        <v>0.982086633791722</v>
       </c>
       <c r="K10">
-        <v>0.9909048633498138</v>
+        <v>0.9936031355347965</v>
       </c>
       <c r="L10">
-        <v>0.9330608671367815</v>
+        <v>0.9343233510599923</v>
       </c>
       <c r="M10">
-        <v>0.9538273804302413</v>
+        <v>0.9564533256894413</v>
+      </c>
+      <c r="N10">
+        <v>0.9834813094586177</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9393882170571394</v>
+        <v>0.9428487008523755</v>
       </c>
       <c r="D11">
-        <v>0.968889166148173</v>
+        <v>0.97167672909346</v>
       </c>
       <c r="E11">
-        <v>0.9081546803256882</v>
+        <v>0.9094941556279016</v>
       </c>
       <c r="F11">
-        <v>0.9284321792242697</v>
+        <v>0.9311717988125822</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019984521021491</v>
+        <v>1.021535691953481</v>
       </c>
       <c r="J11">
-        <v>0.9715195508186641</v>
+        <v>0.9748087039996743</v>
       </c>
       <c r="K11">
-        <v>0.9844226436112018</v>
+        <v>0.9871533047980543</v>
       </c>
       <c r="L11">
-        <v>0.925044719627343</v>
+        <v>0.9263516479421724</v>
       </c>
       <c r="M11">
-        <v>0.9448429291140135</v>
+        <v>0.9475199294622665</v>
+      </c>
+      <c r="N11">
+        <v>0.9761930441714751</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9359067482298093</v>
+        <v>0.9393880890913761</v>
       </c>
       <c r="D12">
-        <v>0.9661123607422765</v>
+        <v>0.9689151041059304</v>
       </c>
       <c r="E12">
-        <v>0.9047163798805394</v>
+        <v>0.9060758352505442</v>
       </c>
       <c r="F12">
-        <v>0.9246330293118646</v>
+        <v>0.9273962095203783</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018578445184088</v>
+        <v>1.020137317533018</v>
       </c>
       <c r="J12">
-        <v>0.9686951515995836</v>
+        <v>0.9719992072173057</v>
       </c>
       <c r="K12">
-        <v>0.9819189243011169</v>
+        <v>0.9846630971912234</v>
       </c>
       <c r="L12">
-        <v>0.9219289894009414</v>
+        <v>0.9232545278490936</v>
       </c>
       <c r="M12">
-        <v>0.941362096089721</v>
+        <v>0.944060386621939</v>
+      </c>
+      <c r="N12">
+        <v>0.9733795575814216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9366598135614747</v>
+        <v>0.9401365731761444</v>
       </c>
       <c r="D13">
-        <v>0.9667129338511307</v>
+        <v>0.9695123404932999</v>
       </c>
       <c r="E13">
-        <v>0.9054611137182783</v>
+        <v>0.9068161691217352</v>
       </c>
       <c r="F13">
-        <v>0.9254554360236189</v>
+        <v>0.9282134343494377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018882762733111</v>
+        <v>1.020439940406128</v>
       </c>
       <c r="J13">
-        <v>0.9693062133644297</v>
+        <v>0.9726069882829044</v>
       </c>
       <c r="K13">
-        <v>0.9824606225222312</v>
+        <v>0.9852018222728004</v>
       </c>
       <c r="L13">
-        <v>0.9226040378544191</v>
+        <v>0.9239254775434982</v>
       </c>
       <c r="M13">
-        <v>0.9421157188811745</v>
+        <v>0.9448093247433949</v>
+      </c>
+      <c r="N13">
+        <v>0.9739882017658468</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.939103228386271</v>
+        <v>0.9425653889378334</v>
       </c>
       <c r="D14">
-        <v>0.9686618300697716</v>
+        <v>0.9714506123843768</v>
       </c>
       <c r="E14">
-        <v>0.9078736698797479</v>
+        <v>0.90921474652152</v>
       </c>
       <c r="F14">
-        <v>0.9281214610662019</v>
+        <v>0.930862971815273</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019869499237815</v>
+        <v>1.021421287963793</v>
       </c>
       <c r="J14">
-        <v>0.9712884047408229</v>
+        <v>0.9745787527346755</v>
       </c>
       <c r="K14">
-        <v>0.98421774887851</v>
+        <v>0.986949493987387</v>
       </c>
       <c r="L14">
-        <v>0.9247901542324773</v>
+        <v>0.9260985738781837</v>
       </c>
       <c r="M14">
-        <v>0.9445582995651215</v>
+        <v>0.9472370078895509</v>
+      </c>
+      <c r="N14">
+        <v>0.975962766349304</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9405907730693235</v>
+        <v>0.9440442403273936</v>
       </c>
       <c r="D15">
-        <v>0.9698485063267819</v>
+        <v>0.972630968706344</v>
       </c>
       <c r="E15">
-        <v>0.9093395824021911</v>
+        <v>0.9106723661320643</v>
       </c>
       <c r="F15">
-        <v>0.9297427696778015</v>
+        <v>0.9324744811432528</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020469718402468</v>
+        <v>1.022018306755336</v>
       </c>
       <c r="J15">
-        <v>0.9724947988831364</v>
+        <v>0.9757789585830353</v>
       </c>
       <c r="K15">
-        <v>0.985287117586511</v>
+        <v>0.9880132475372509</v>
       </c>
       <c r="L15">
-        <v>0.9261179523078289</v>
+        <v>0.9274186491793532</v>
       </c>
       <c r="M15">
-        <v>0.946043370626065</v>
+        <v>0.9487132307132279</v>
+      </c>
+      <c r="N15">
+        <v>0.9771646766276338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.948993874184118</v>
+        <v>0.9524008555779971</v>
       </c>
       <c r="D16">
-        <v>0.9765546539639085</v>
+        <v>0.9793034099499107</v>
       </c>
       <c r="E16">
-        <v>0.9175806950560228</v>
+        <v>0.9188695333185893</v>
       </c>
       <c r="F16">
-        <v>0.9388771428248105</v>
+        <v>0.9415566926600543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023852814369178</v>
+        <v>1.025384408034819</v>
       </c>
       <c r="J16">
-        <v>0.9793044549277146</v>
+        <v>0.9825558063845279</v>
       </c>
       <c r="K16">
-        <v>0.9913225632915745</v>
+        <v>0.9940188697426527</v>
       </c>
       <c r="L16">
-        <v>0.9335749462704266</v>
+        <v>0.9348347396273062</v>
       </c>
       <c r="M16">
-        <v>0.9544050029165477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.957027847625146</v>
+      </c>
+      <c r="N16">
+        <v>0.9839511483303203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9540583786605735</v>
+        <v>0.9574393649133909</v>
       </c>
       <c r="D17">
-        <v>0.9805984737951396</v>
+        <v>0.9833284516547746</v>
       </c>
       <c r="E17">
-        <v>0.922515493368066</v>
+        <v>0.923780056670219</v>
       </c>
       <c r="F17">
-        <v>0.9443630141950481</v>
+        <v>0.9470135728553741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025885219117183</v>
+        <v>1.027407406724606</v>
       </c>
       <c r="J17">
-        <v>0.9834041560410415</v>
+        <v>0.9866373898387164</v>
       </c>
       <c r="K17">
-        <v>0.9949554542430669</v>
+        <v>0.9976352473109519</v>
       </c>
       <c r="L17">
-        <v>0.9380337043789628</v>
+        <v>0.9392709217193396</v>
       </c>
       <c r="M17">
-        <v>0.95942234459422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9620191277739711</v>
+      </c>
+      <c r="N17">
+        <v>0.9880385281011776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9569443904627978</v>
+        <v>0.9603111996652174</v>
       </c>
       <c r="D18">
-        <v>0.9829034970749089</v>
+        <v>0.9856232574374637</v>
       </c>
       <c r="E18">
-        <v>0.9253169856830925</v>
+        <v>0.9265684028446364</v>
       </c>
       <c r="F18">
-        <v>0.9474828407215822</v>
+        <v>0.9501176430947724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02704102247849</v>
+        <v>1.028558113693621</v>
       </c>
       <c r="J18">
-        <v>0.9857388185403059</v>
+        <v>0.9889622487284817</v>
       </c>
       <c r="K18">
-        <v>0.9970240115930596</v>
+        <v>0.9996948541373551</v>
       </c>
       <c r="L18">
-        <v>0.9405626699301686</v>
+        <v>0.941787668155746</v>
       </c>
       <c r="M18">
-        <v>0.96227414988427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9648567929885337</v>
+      </c>
+      <c r="N18">
+        <v>0.9903666885572315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9579174521422446</v>
+        <v>0.9612795818961186</v>
       </c>
       <c r="D19">
-        <v>0.9836807719543126</v>
+        <v>0.9863971636741922</v>
       </c>
       <c r="E19">
-        <v>0.9262598287027968</v>
+        <v>0.9275069212622599</v>
       </c>
       <c r="F19">
-        <v>0.9485337230438622</v>
+        <v>0.9511633332641306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027430317181722</v>
+        <v>1.028945731777484</v>
       </c>
       <c r="J19">
-        <v>0.986525724069427</v>
+        <v>0.9897459310941502</v>
       </c>
       <c r="K19">
-        <v>0.9977211781186526</v>
+        <v>1.000389075486545</v>
       </c>
       <c r="L19">
-        <v>0.9414134126615739</v>
+        <v>0.9426343924507171</v>
       </c>
       <c r="M19">
-        <v>0.9632344884626618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9658124760073948</v>
+      </c>
+      <c r="N19">
+        <v>0.9911514838417491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535221747730643</v>
+        <v>0.9569058450174663</v>
       </c>
       <c r="D20">
-        <v>0.9801702650480477</v>
+        <v>0.9829021792073973</v>
       </c>
       <c r="E20">
-        <v>0.9219941481274809</v>
+        <v>0.92326120767296</v>
       </c>
       <c r="F20">
-        <v>0.9437828694608369</v>
+        <v>0.9464364154620702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02567028506705</v>
+        <v>1.027193440272919</v>
       </c>
       <c r="J20">
-        <v>0.9829702637453072</v>
+        <v>0.9862053598923142</v>
       </c>
       <c r="K20">
-        <v>0.9945709946598537</v>
+        <v>0.9972524867820243</v>
       </c>
       <c r="L20">
-        <v>0.9375628905525965</v>
+        <v>0.9388024286968166</v>
       </c>
       <c r="M20">
-        <v>0.9588919123478089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9614913784231239</v>
+      </c>
+      <c r="N20">
+        <v>0.9876058846226972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383874853342654</v>
+        <v>0.9418538808003263</v>
       </c>
       <c r="D21">
-        <v>0.9680909039259282</v>
+        <v>0.9708827667605257</v>
       </c>
       <c r="E21">
-        <v>0.9071675697800274</v>
+        <v>0.9085126946960279</v>
       </c>
       <c r="F21">
-        <v>0.9273408835533434</v>
+        <v>0.9300871730255695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019580562646957</v>
+        <v>1.021133912774508</v>
       </c>
       <c r="J21">
-        <v>0.9707078422256863</v>
+        <v>0.9740012104671297</v>
       </c>
       <c r="K21">
-        <v>0.9837031152540743</v>
+        <v>0.9864375998149787</v>
       </c>
       <c r="L21">
-        <v>0.924150438573333</v>
+        <v>0.9254626285572697</v>
       </c>
       <c r="M21">
-        <v>0.9438432178309168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9465262427422066</v>
+      </c>
+      <c r="N21">
+        <v>0.9753844039054933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9281056308419454</v>
+        <v>0.9316368142752327</v>
       </c>
       <c r="D22">
-        <v>0.9598932320772599</v>
+        <v>0.9627323586000149</v>
       </c>
       <c r="E22">
-        <v>0.8969683277117587</v>
+        <v>0.8983760601034761</v>
       </c>
       <c r="F22">
-        <v>0.9160927633116224</v>
+        <v>0.9189125649938715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015420576569714</v>
+        <v>1.016997989469459</v>
       </c>
       <c r="J22">
-        <v>0.9623610889335793</v>
+        <v>0.9657010878253846</v>
       </c>
       <c r="K22">
-        <v>0.9763033993094806</v>
+        <v>0.979080098863072</v>
       </c>
       <c r="L22">
-        <v>0.9149001079931317</v>
+        <v>0.9162706332238951</v>
       </c>
       <c r="M22">
-        <v>0.9335322509514851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9362818015681847</v>
+      </c>
+      <c r="N22">
+        <v>0.9670724941375596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9336377593430195</v>
+        <v>0.937133142313431</v>
       </c>
       <c r="D23">
-        <v>0.9643030645180946</v>
+        <v>0.9671160433565464</v>
       </c>
       <c r="E23">
-        <v>0.9024691075160726</v>
+        <v>0.9038420888562052</v>
       </c>
       <c r="F23">
-        <v>0.9221530018059253</v>
+        <v>0.9249320888456328</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017660968381626</v>
+        <v>1.019225045447442</v>
       </c>
       <c r="J23">
-        <v>0.9668536070810916</v>
+        <v>0.9701677434438432</v>
       </c>
       <c r="K23">
-        <v>0.9802863691665253</v>
+        <v>0.9830396730463671</v>
       </c>
       <c r="L23">
-        <v>0.9198913922489814</v>
+        <v>0.9212295322569897</v>
       </c>
       <c r="M23">
-        <v>0.9390890888887554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9418017671485852</v>
+      </c>
+      <c r="N23">
+        <v>0.9715454929193291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537646709334953</v>
+        <v>0.9571471253889324</v>
       </c>
       <c r="D24">
-        <v>0.9803639188140856</v>
+        <v>0.9830949557978279</v>
       </c>
       <c r="E24">
-        <v>0.9222299573974984</v>
+        <v>0.9234958859084451</v>
       </c>
       <c r="F24">
-        <v>0.9440452572072838</v>
+        <v>0.9466974498372328</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025767495548172</v>
+        <v>1.027290212347429</v>
       </c>
       <c r="J24">
-        <v>0.983166494722679</v>
+        <v>0.9864007470220432</v>
       </c>
       <c r="K24">
-        <v>0.9947448701772998</v>
+        <v>0.9974255924899794</v>
       </c>
       <c r="L24">
-        <v>0.9377758511023531</v>
+        <v>0.9390143376804738</v>
       </c>
       <c r="M24">
-        <v>0.9591318210283861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9617300715807836</v>
+      </c>
+      <c r="N24">
+        <v>0.9878015492245615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744830878911074</v>
+        <v>0.9777727740176055</v>
       </c>
       <c r="D25">
-        <v>0.9969203663720101</v>
+        <v>0.9995848882714474</v>
       </c>
       <c r="E25">
-        <v>0.9421797055478696</v>
+        <v>0.9433608013921509</v>
       </c>
       <c r="F25">
-        <v>0.9663486307690086</v>
+        <v>0.9688984129730173</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034023843833069</v>
+        <v>1.035513718365043</v>
       </c>
       <c r="J25">
-        <v>0.9999008068211422</v>
+        <v>1.003072046917433</v>
       </c>
       <c r="K25">
-        <v>1.009566678548004</v>
+        <v>1.012189651734505</v>
       </c>
       <c r="L25">
-        <v>0.9557472261065516</v>
+        <v>0.9569069788648725</v>
       </c>
       <c r="M25">
-        <v>0.9794928150307808</v>
+        <v>0.9819995243790305</v>
+      </c>
+      <c r="N25">
+        <v>1.004496524278028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9926584266124459</v>
+        <v>1.013734984095485</v>
       </c>
       <c r="D2">
-        <v>1.011495871898918</v>
+        <v>1.031713050563767</v>
       </c>
       <c r="E2">
-        <v>0.9574601886624429</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9847897762896287</v>
+        <v>1.035882679319694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041378391473699</v>
+        <v>1.047992099892422</v>
       </c>
       <c r="J2">
-        <v>1.015060962367015</v>
+        <v>1.035512503806303</v>
       </c>
       <c r="K2">
-        <v>1.022797340917442</v>
+        <v>1.042747568419306</v>
       </c>
       <c r="L2">
-        <v>0.9695458029968185</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9964651612068738</v>
+        <v>1.04686376039779</v>
       </c>
       <c r="N2">
-        <v>1.016502465362696</v>
+        <v>1.036983050336652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002743247548096</v>
+        <v>1.023041120584727</v>
       </c>
       <c r="D3">
-        <v>1.019568111904011</v>
+        <v>1.039013033046495</v>
       </c>
       <c r="E3">
-        <v>0.9668995323930381</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9954973437718422</v>
+        <v>1.043755146406184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045310788834454</v>
+        <v>1.05088257361745</v>
       </c>
       <c r="J3">
-        <v>1.023159407205025</v>
+        <v>1.042922778507128</v>
       </c>
       <c r="K3">
-        <v>1.029956590649516</v>
+        <v>1.04916993140079</v>
       </c>
       <c r="L3">
-        <v>0.9779742231384713</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.00618816297288</v>
+        <v>1.053857184952224</v>
       </c>
       <c r="N3">
-        <v>1.024612410921281</v>
+        <v>1.044403848477522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008980573237533</v>
+        <v>1.028846194519921</v>
       </c>
       <c r="D4">
-        <v>1.024561077261332</v>
+        <v>1.043568867779501</v>
       </c>
       <c r="E4">
-        <v>0.9726913772089644</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.002096919982633</v>
+        <v>1.048671938728976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047723914360739</v>
+        <v>1.052671462916335</v>
       </c>
       <c r="J4">
-        <v>1.028157311767443</v>
+        <v>1.047539726992163</v>
       </c>
       <c r="K4">
-        <v>1.034371840431257</v>
+        <v>1.053168423469345</v>
       </c>
       <c r="L4">
-        <v>0.9831309639371031</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.0121701027402</v>
+        <v>1.058216389103741</v>
       </c>
       <c r="N4">
-        <v>1.029617413081445</v>
+        <v>1.049027353558978</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011539580056372</v>
+        <v>1.031238307689184</v>
       </c>
       <c r="D5">
-        <v>1.026609536193779</v>
+        <v>1.045446570301023</v>
       </c>
       <c r="E5">
-        <v>0.9750572273576456</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.004799562170077</v>
+        <v>1.050699297345862</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048709366332027</v>
+        <v>1.053405131121888</v>
       </c>
       <c r="J5">
-        <v>1.030205221353857</v>
+        <v>1.049440840304821</v>
       </c>
       <c r="K5">
-        <v>1.036180250991634</v>
+        <v>1.054814129641918</v>
       </c>
       <c r="L5">
-        <v>0.9852338859159534</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.014617248277312</v>
+        <v>1.06001179346848</v>
       </c>
       <c r="N5">
-        <v>1.03166823093437</v>
+        <v>1.0509311666706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011965699229078</v>
+        <v>1.0316372147907</v>
       </c>
       <c r="D6">
-        <v>1.026950635901777</v>
+        <v>1.045759711947664</v>
       </c>
       <c r="E6">
-        <v>0.9754505899526901</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.005249319128629</v>
+        <v>1.051037449179381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048873190362387</v>
+        <v>1.05352726969423</v>
       </c>
       <c r="J6">
-        <v>1.030546081425786</v>
+        <v>1.049757783593896</v>
       </c>
       <c r="K6">
-        <v>1.036481203036648</v>
+        <v>1.055088447796606</v>
       </c>
       <c r="L6">
-        <v>0.9855833275125367</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.015024336905001</v>
+        <v>1.060311136959504</v>
       </c>
       <c r="N6">
-        <v>1.032009575066698</v>
+        <v>1.0512485600555</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009015007896127</v>
+        <v>1.028878343620006</v>
       </c>
       <c r="D7">
-        <v>1.024588642081058</v>
+        <v>1.043594102136666</v>
       </c>
       <c r="E7">
-        <v>0.9727232530710863</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.002133306607638</v>
+        <v>1.048699180789817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04773719310937</v>
+        <v>1.052681337060905</v>
       </c>
       <c r="J7">
-        <v>1.028184879261565</v>
+        <v>1.047565282916521</v>
       </c>
       <c r="K7">
-        <v>1.034396186988708</v>
+        <v>1.053190549065716</v>
       </c>
       <c r="L7">
-        <v>0.9831593111400816</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.012203059673112</v>
+        <v>1.058240522415482</v>
       </c>
       <c r="N7">
-        <v>1.02964501972457</v>
+        <v>1.04905294577568</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9961301079122856</v>
+        <v>1.01692713042032</v>
       </c>
       <c r="D8">
-        <v>1.01427456700432</v>
+        <v>1.03421649227141</v>
       </c>
       <c r="E8">
-        <v>0.9607200112403909</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9884810666360464</v>
+        <v>1.038581670994264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042736148905141</v>
+        <v>1.048986522036658</v>
       </c>
       <c r="J8">
-        <v>1.017851166184744</v>
+        <v>1.038055453215879</v>
       </c>
       <c r="K8">
-        <v>1.025264590425439</v>
+        <v>1.044952098601306</v>
       </c>
       <c r="L8">
-        <v>0.9724597218519125</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9998193635297916</v>
+        <v>1.049263209310227</v>
       </c>
       <c r="N8">
-        <v>1.019296631589887</v>
+        <v>1.039529611026071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9709008435512533</v>
+        <v>0.9940273259030198</v>
       </c>
       <c r="D9">
-        <v>0.9940887323835778</v>
+        <v>1.016274400719304</v>
       </c>
       <c r="E9">
-        <v>0.9367850574437395</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9615259036773334</v>
+        <v>1.019254032926701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032785265445701</v>
+        <v>1.041794745922987</v>
       </c>
       <c r="J9">
-        <v>0.9975247378737221</v>
+        <v>1.01979277206944</v>
       </c>
       <c r="K9">
-        <v>1.007278449417405</v>
+        <v>1.029108842182151</v>
       </c>
       <c r="L9">
-        <v>0.9509943831660681</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9752756445874176</v>
+        <v>1.032042263964433</v>
       </c>
       <c r="N9">
-        <v>0.9989413374191892</v>
+        <v>1.021240994777645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9518219537252666</v>
+        <v>0.9772252145420914</v>
       </c>
       <c r="D10">
-        <v>0.9788410436148401</v>
+        <v>1.003142031794482</v>
       </c>
       <c r="E10">
-        <v>0.918303815143952</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9409288154974461</v>
+        <v>1.005128008186386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025151649116216</v>
+        <v>1.036448370144002</v>
       </c>
       <c r="J10">
-        <v>0.982086633791722</v>
+        <v>1.006372508643089</v>
       </c>
       <c r="K10">
-        <v>0.9936031355347965</v>
+        <v>1.017454786681096</v>
       </c>
       <c r="L10">
-        <v>0.9343233510599923</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9564533256894413</v>
+        <v>1.019405288039226</v>
       </c>
       <c r="N10">
-        <v>0.9834813094586177</v>
+        <v>1.007801673037902</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9428487008523755</v>
+        <v>0.969502004520849</v>
       </c>
       <c r="D11">
-        <v>0.97167672909346</v>
+        <v>0.9971171440889766</v>
       </c>
       <c r="E11">
-        <v>0.9094941556279016</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9311717988125822</v>
+        <v>0.9986520945749853</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021535691953481</v>
+        <v>1.033976283147604</v>
       </c>
       <c r="J11">
-        <v>0.9748087039996743</v>
+        <v>1.000200974488147</v>
       </c>
       <c r="K11">
-        <v>0.9871533047980543</v>
+        <v>1.012093632402129</v>
       </c>
       <c r="L11">
-        <v>0.9263516479421724</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9475199294622665</v>
+        <v>1.013599475263824</v>
       </c>
       <c r="N11">
-        <v>0.9761930441714751</v>
+        <v>1.001621374596576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9393880890913761</v>
+        <v>0.9665572338789218</v>
       </c>
       <c r="D12">
-        <v>0.9689151041059304</v>
+        <v>0.9948220440517318</v>
       </c>
       <c r="E12">
-        <v>0.9060758352505442</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9273962095203783</v>
+        <v>0.9961859089688976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020137317533018</v>
+        <v>1.033031713558791</v>
       </c>
       <c r="J12">
-        <v>0.9719992072173057</v>
+        <v>0.9978476294450987</v>
       </c>
       <c r="K12">
-        <v>0.9846630971912234</v>
+        <v>1.010049122448047</v>
       </c>
       <c r="L12">
-        <v>0.9232545278490936</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.944060386621939</v>
+        <v>1.011386547571877</v>
       </c>
       <c r="N12">
-        <v>0.9733795575814216</v>
+        <v>0.9992646875336336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9401365731761444</v>
+        <v>0.967192496261906</v>
       </c>
       <c r="D13">
-        <v>0.9695123404932999</v>
+        <v>0.9953170533225491</v>
       </c>
       <c r="E13">
-        <v>0.9068161691217352</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9282134343494377</v>
+        <v>0.9967177853793873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020439940406128</v>
+        <v>1.033235567609878</v>
       </c>
       <c r="J13">
-        <v>0.9726069882829044</v>
+        <v>0.9983553118866756</v>
       </c>
       <c r="K13">
-        <v>0.9852018222728004</v>
+        <v>1.010490186976473</v>
       </c>
       <c r="L13">
-        <v>0.9239254775434982</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9448093247433949</v>
+        <v>1.011863892468756</v>
       </c>
       <c r="N13">
-        <v>0.9739882017658468</v>
+        <v>0.9997730909425095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9425653889378334</v>
+        <v>0.9692601963182986</v>
       </c>
       <c r="D14">
-        <v>0.9714506123843768</v>
+        <v>0.9969286378689374</v>
       </c>
       <c r="E14">
-        <v>0.90921474652152</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.930862971815273</v>
+        <v>0.9984495216780208</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021421287963793</v>
+        <v>1.033898759361609</v>
       </c>
       <c r="J14">
-        <v>0.9745787527346755</v>
+        <v>1.000007733780238</v>
       </c>
       <c r="K14">
-        <v>0.986949493987387</v>
+        <v>1.011925754193483</v>
       </c>
       <c r="L14">
-        <v>0.9260985738781837</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9472370078895509</v>
+        <v>1.013417744437114</v>
       </c>
       <c r="N14">
-        <v>0.975962766349304</v>
+        <v>1.001427859464695</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9440442403273936</v>
+        <v>0.9705238104248439</v>
       </c>
       <c r="D15">
-        <v>0.972630968706344</v>
+        <v>0.9979138008502828</v>
       </c>
       <c r="E15">
-        <v>0.9106723661320643</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9324744811432528</v>
+        <v>0.9995082287611566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022018306755336</v>
+        <v>1.034303795027435</v>
       </c>
       <c r="J15">
-        <v>0.9757789585830353</v>
+        <v>1.00101754216069</v>
       </c>
       <c r="K15">
-        <v>0.9880132475372509</v>
+        <v>1.01280302029082</v>
       </c>
       <c r="L15">
-        <v>0.9274186491793532</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9487132307132279</v>
+        <v>1.014367445910916</v>
       </c>
       <c r="N15">
-        <v>0.9771646766276338</v>
+        <v>1.002439101888875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9524008555779971</v>
+        <v>0.9777276335620076</v>
       </c>
       <c r="D16">
-        <v>0.9793034099499107</v>
+        <v>1.003534237328084</v>
       </c>
       <c r="E16">
-        <v>0.9188695333185893</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9415566926600543</v>
+        <v>1.005549673967818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025384408034819</v>
+        <v>1.036608903303726</v>
       </c>
       <c r="J16">
-        <v>0.9825558063845279</v>
+        <v>1.00677394535916</v>
       </c>
       <c r="K16">
-        <v>0.9940188697426527</v>
+        <v>1.017803480823917</v>
       </c>
       <c r="L16">
-        <v>0.9348347396273062</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.957027847625146</v>
+        <v>1.019783059652767</v>
       </c>
       <c r="N16">
-        <v>0.9839511483303203</v>
+        <v>1.008203679840156</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9574393649133909</v>
+        <v>0.9821208268882524</v>
       </c>
       <c r="D17">
-        <v>0.9833284516547746</v>
+        <v>1.006965041225748</v>
       </c>
       <c r="E17">
-        <v>0.923780056670219</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9470135728553741</v>
+        <v>1.009238722651701</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027407406724606</v>
+        <v>1.038011007242624</v>
       </c>
       <c r="J17">
-        <v>0.9866373898387164</v>
+        <v>1.010283847757493</v>
       </c>
       <c r="K17">
-        <v>0.9976352473109519</v>
+        <v>1.020852040292264</v>
       </c>
       <c r="L17">
-        <v>0.9392709217193396</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9620191277739711</v>
+        <v>1.023086679756392</v>
       </c>
       <c r="N17">
-        <v>0.9880385281011776</v>
+        <v>1.011718566702485</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9603111996652174</v>
+        <v>0.9846407663098485</v>
       </c>
       <c r="D18">
-        <v>0.9856232574374637</v>
+        <v>1.00893399527764</v>
       </c>
       <c r="E18">
-        <v>0.9265684028446364</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9501176430947724</v>
+        <v>1.011356335982402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028558113693621</v>
+        <v>1.038813883655049</v>
       </c>
       <c r="J18">
-        <v>0.9889622487284817</v>
+        <v>1.012296853642581</v>
       </c>
       <c r="K18">
-        <v>0.9996948541373551</v>
+        <v>1.022600277885067</v>
       </c>
       <c r="L18">
-        <v>0.941787668155746</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9648567929885337</v>
+        <v>1.024981881784556</v>
       </c>
       <c r="N18">
-        <v>0.9903666885572315</v>
+        <v>1.013734431286826</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9612795818961186</v>
+        <v>0.9854930259092355</v>
       </c>
       <c r="D19">
-        <v>0.9863971636741922</v>
+        <v>1.009600074375101</v>
       </c>
       <c r="E19">
-        <v>0.9275069212622599</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9511633332641306</v>
+        <v>1.012072781773583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028945731777484</v>
+        <v>1.039085183540471</v>
       </c>
       <c r="J19">
-        <v>0.9897459310941502</v>
+        <v>1.01297761241364</v>
       </c>
       <c r="K19">
-        <v>1.000389075486545</v>
+        <v>1.023191464498042</v>
       </c>
       <c r="L19">
-        <v>0.9426343924507171</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9658124760073948</v>
+        <v>1.025622883534745</v>
       </c>
       <c r="N19">
-        <v>0.9911514838417491</v>
+        <v>1.014416156813424</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9569058450174663</v>
+        <v>0.9816539366352137</v>
       </c>
       <c r="D20">
-        <v>0.9829021792073973</v>
+        <v>1.006600318676854</v>
       </c>
       <c r="E20">
-        <v>0.92326120767296</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9464364154620702</v>
+        <v>1.008846499595418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027193440272919</v>
+        <v>1.037862138964194</v>
       </c>
       <c r="J20">
-        <v>0.9862053598923142</v>
+        <v>1.009910857446906</v>
       </c>
       <c r="K20">
-        <v>0.9972524867820243</v>
+        <v>1.020528093882606</v>
       </c>
       <c r="L20">
-        <v>0.9388024286968166</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9614913784231239</v>
+        <v>1.02273555737629</v>
       </c>
       <c r="N20">
-        <v>0.9876058846226972</v>
+        <v>1.011345046702875</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9418538808003263</v>
+        <v>0.9686534875038462</v>
       </c>
       <c r="D21">
-        <v>0.9708827667605257</v>
+        <v>0.9964557018495792</v>
       </c>
       <c r="E21">
-        <v>0.9085126946960279</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9300871730255695</v>
+        <v>0.9979413059754286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021133912774508</v>
+        <v>1.033704217101362</v>
       </c>
       <c r="J21">
-        <v>0.9740012104671297</v>
+        <v>0.999522880635023</v>
       </c>
       <c r="K21">
-        <v>0.9864375998149787</v>
+        <v>1.011504534607656</v>
       </c>
       <c r="L21">
-        <v>0.9254626285572697</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9465262427422066</v>
+        <v>1.012961786194209</v>
       </c>
       <c r="N21">
-        <v>0.9753844039054933</v>
+        <v>1.000942317772402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9316368142752327</v>
+        <v>0.9600340835041731</v>
       </c>
       <c r="D22">
-        <v>0.9627323586000149</v>
+        <v>0.9897424416535811</v>
       </c>
       <c r="E22">
-        <v>0.8983760601034761</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9189125649938715</v>
+        <v>0.9907289976858973</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016997989469459</v>
+        <v>1.030935902424431</v>
       </c>
       <c r="J22">
-        <v>0.9657010878253846</v>
+        <v>0.9926344643594278</v>
       </c>
       <c r="K22">
-        <v>0.979080098863072</v>
+        <v>1.005519878802736</v>
       </c>
       <c r="L22">
-        <v>0.9162706332238951</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9362818015681847</v>
+        <v>1.00648637969538</v>
       </c>
       <c r="N22">
-        <v>0.9670724941375596</v>
+        <v>0.9940441191555828</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.937133142313431</v>
+        <v>0.9646490026550735</v>
       </c>
       <c r="D23">
-        <v>0.9671160433565464</v>
+        <v>0.9933354565680896</v>
       </c>
       <c r="E23">
-        <v>0.9038420888562052</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9249320888456328</v>
+        <v>0.9945887104095142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019225045447442</v>
+        <v>1.0324190923888</v>
       </c>
       <c r="J23">
-        <v>0.9701677434438432</v>
+        <v>0.9963226165091547</v>
       </c>
       <c r="K23">
-        <v>0.9830396730463671</v>
+        <v>1.00872420288243</v>
       </c>
       <c r="L23">
-        <v>0.9212295322569897</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9418017671485852</v>
+        <v>1.009952816794256</v>
       </c>
       <c r="N23">
-        <v>0.9715454929193291</v>
+        <v>0.9977375089043992</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9571471253889324</v>
+        <v>0.9818650350523886</v>
       </c>
       <c r="D24">
-        <v>0.9830949557978279</v>
+        <v>1.006765220066701</v>
       </c>
       <c r="E24">
-        <v>0.9234958859084451</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9466974498372328</v>
+        <v>1.009023833338562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027290212347429</v>
+        <v>1.037929452122397</v>
       </c>
       <c r="J24">
-        <v>0.9864007470220432</v>
+        <v>1.01007950109131</v>
       </c>
       <c r="K24">
-        <v>0.9974255924899794</v>
+        <v>1.020674563403998</v>
       </c>
       <c r="L24">
-        <v>0.9390143376804738</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9617300715807836</v>
+        <v>1.022894312108034</v>
       </c>
       <c r="N24">
-        <v>0.9878015492245615</v>
+        <v>1.011513929840598</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9777727740176055</v>
+        <v>1.000193481146294</v>
       </c>
       <c r="D25">
-        <v>0.9995848882714474</v>
+        <v>1.021101289851096</v>
       </c>
       <c r="E25">
-        <v>0.9433608013921509</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9688984129730173</v>
+        <v>1.024450214501591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035513718365043</v>
+        <v>1.043743516564444</v>
       </c>
       <c r="J25">
-        <v>1.003072046917433</v>
+        <v>1.024714335633004</v>
       </c>
       <c r="K25">
-        <v>1.012189651734505</v>
+        <v>1.033380634327375</v>
       </c>
       <c r="L25">
-        <v>0.9569069788648725</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9819995243790305</v>
+        <v>1.036680469094491</v>
       </c>
       <c r="N25">
-        <v>1.004496524278028</v>
+        <v>1.02616954752598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013734984095485</v>
+        <v>1.039400863618774</v>
       </c>
       <c r="D2">
-        <v>1.031713050563767</v>
+        <v>1.0530338134547</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.041206662425674</v>
       </c>
       <c r="F2">
-        <v>1.035882679319694</v>
+        <v>1.055143568329136</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047992099892422</v>
+        <v>1.05997198613209</v>
       </c>
       <c r="J2">
-        <v>1.035512503806303</v>
+        <v>1.060463740293308</v>
       </c>
       <c r="K2">
-        <v>1.042747568419306</v>
+        <v>1.063800626887718</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.052120289042473</v>
       </c>
       <c r="M2">
-        <v>1.04686376039779</v>
+        <v>1.065884622863073</v>
       </c>
       <c r="N2">
-        <v>1.036983050336652</v>
+        <v>1.061969720441416</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023041120584727</v>
+        <v>1.045522498772851</v>
       </c>
       <c r="D3">
-        <v>1.039013033046495</v>
+        <v>1.05793015197643</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.046427590608858</v>
       </c>
       <c r="F3">
-        <v>1.043755146406184</v>
+        <v>1.060636355861628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05088257361745</v>
+        <v>1.062219494998926</v>
       </c>
       <c r="J3">
-        <v>1.042922778507128</v>
+        <v>1.06484467244718</v>
       </c>
       <c r="K3">
-        <v>1.04916993140079</v>
+        <v>1.067871813934291</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.056498982951025</v>
       </c>
       <c r="M3">
-        <v>1.053857184952224</v>
+        <v>1.070547998971021</v>
       </c>
       <c r="N3">
-        <v>1.044403848477522</v>
+        <v>1.066356874021447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028846194519921</v>
+        <v>1.049385026159141</v>
       </c>
       <c r="D4">
-        <v>1.043568867779501</v>
+        <v>1.061022769639159</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.049732836425725</v>
       </c>
       <c r="F4">
-        <v>1.048671938728976</v>
+        <v>1.064110656202202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052671462916335</v>
+        <v>1.063627824322189</v>
       </c>
       <c r="J4">
-        <v>1.047539726992163</v>
+        <v>1.06760459710342</v>
       </c>
       <c r="K4">
-        <v>1.053168423469345</v>
+        <v>1.070436530915449</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.059265913147381</v>
       </c>
       <c r="M4">
-        <v>1.058216389103741</v>
+        <v>1.073492322026915</v>
       </c>
       <c r="N4">
-        <v>1.049027353558978</v>
+        <v>1.069120718087266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031238307689184</v>
+        <v>1.050986302232836</v>
       </c>
       <c r="D5">
-        <v>1.045446570301023</v>
+        <v>1.06230556838381</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.051105647834823</v>
       </c>
       <c r="F5">
-        <v>1.050699297345862</v>
+        <v>1.065552968751202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053405131121888</v>
+        <v>1.064209282917098</v>
       </c>
       <c r="J5">
-        <v>1.049440840304821</v>
+        <v>1.068747697514012</v>
       </c>
       <c r="K5">
-        <v>1.054814129641918</v>
+        <v>1.071498750552123</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.060413912279036</v>
       </c>
       <c r="M5">
-        <v>1.06001179346848</v>
+        <v>1.074713333563435</v>
       </c>
       <c r="N5">
-        <v>1.0509311666706</v>
+        <v>1.070265441831556</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0316372147907</v>
+        <v>1.051253872139615</v>
       </c>
       <c r="D6">
-        <v>1.045759711947664</v>
+        <v>1.0625199607473</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.051335190375877</v>
       </c>
       <c r="F6">
-        <v>1.051037449179381</v>
+        <v>1.065794090811428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05352726969423</v>
+        <v>1.064306301746325</v>
       </c>
       <c r="J6">
-        <v>1.049757783593896</v>
+        <v>1.068938642841979</v>
       </c>
       <c r="K6">
-        <v>1.055088447796606</v>
+        <v>1.071676183304892</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.060605792745523</v>
       </c>
       <c r="M6">
-        <v>1.060311136959504</v>
+        <v>1.074917383338702</v>
       </c>
       <c r="N6">
-        <v>1.0512485600555</v>
+        <v>1.07045665832379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028878343620006</v>
+        <v>1.04940650965391</v>
       </c>
       <c r="D7">
-        <v>1.043594102136666</v>
+        <v>1.061039977600077</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.049751244685874</v>
       </c>
       <c r="F7">
-        <v>1.048699180789817</v>
+        <v>1.064129999215002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052681337060905</v>
+        <v>1.063635634953003</v>
       </c>
       <c r="J7">
-        <v>1.047565282916521</v>
+        <v>1.06761993779312</v>
       </c>
       <c r="K7">
-        <v>1.053190549065716</v>
+        <v>1.070450786300163</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.059281311706497</v>
       </c>
       <c r="M7">
-        <v>1.058240522415482</v>
+        <v>1.073508702238451</v>
       </c>
       <c r="N7">
-        <v>1.04905294577568</v>
+        <v>1.069136080562505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01692713042032</v>
+        <v>1.041490777411672</v>
       </c>
       <c r="D8">
-        <v>1.03421649227141</v>
+        <v>1.054704695967048</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.04298670480005</v>
       </c>
       <c r="F8">
-        <v>1.038581670994264</v>
+        <v>1.057016951653106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048986522036658</v>
+        <v>1.060741307478196</v>
       </c>
       <c r="J8">
-        <v>1.038055453215879</v>
+        <v>1.061960254045694</v>
       </c>
       <c r="K8">
-        <v>1.044952098601306</v>
+        <v>1.065191339990869</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.053614251790357</v>
       </c>
       <c r="M8">
-        <v>1.049263209310227</v>
+        <v>1.067476249046912</v>
       </c>
       <c r="N8">
-        <v>1.039529611026071</v>
+        <v>1.063468359414983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9940273259030198</v>
+        <v>1.02673522351388</v>
       </c>
       <c r="D9">
-        <v>1.016274400719304</v>
+        <v>1.042924416357794</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.030469866526952</v>
       </c>
       <c r="F9">
-        <v>1.019254032926701</v>
+        <v>1.043829951192672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041794745922987</v>
+        <v>1.055269731020806</v>
       </c>
       <c r="J9">
-        <v>1.01979277206944</v>
+        <v>1.051377973672893</v>
       </c>
       <c r="K9">
-        <v>1.029108842182151</v>
+        <v>1.055357451787516</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.043087204458543</v>
       </c>
       <c r="M9">
-        <v>1.032042263964433</v>
+        <v>1.056249804035654</v>
       </c>
       <c r="N9">
-        <v>1.021240994777645</v>
+        <v>1.052871050990247</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9772252145420914</v>
+        <v>1.016276035345765</v>
       </c>
       <c r="D10">
-        <v>1.003142031794482</v>
+        <v>1.034599257002461</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.021667055680827</v>
       </c>
       <c r="F10">
-        <v>1.005128008186386</v>
+        <v>1.034537231903785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036448370144002</v>
+        <v>1.051342674285044</v>
       </c>
       <c r="J10">
-        <v>1.006372508643089</v>
+        <v>1.043858449597304</v>
       </c>
       <c r="K10">
-        <v>1.017454786681096</v>
+        <v>1.048370701396512</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.03565582263584</v>
       </c>
       <c r="M10">
-        <v>1.019405288039226</v>
+        <v>1.048309701925453</v>
       </c>
       <c r="N10">
-        <v>1.007801673037902</v>
+        <v>1.04534084832797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.969502004520849</v>
+        <v>1.011579496767591</v>
       </c>
       <c r="D11">
-        <v>0.9971171440889766</v>
+        <v>1.030868214766015</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.017732404761262</v>
       </c>
       <c r="F11">
-        <v>0.9986520945749853</v>
+        <v>1.030378826672675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033976283147604</v>
+        <v>1.049568522144311</v>
       </c>
       <c r="J11">
-        <v>1.000200974488147</v>
+        <v>1.040478365138216</v>
       </c>
       <c r="K11">
-        <v>1.012093632402129</v>
+        <v>1.045230570873507</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.032327486505346</v>
       </c>
       <c r="M11">
-        <v>1.013599475263824</v>
+        <v>1.044749715405656</v>
       </c>
       <c r="N11">
-        <v>1.001621374596576</v>
+        <v>1.041955963761248</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9665572338789218</v>
+        <v>1.009807899969137</v>
       </c>
       <c r="D12">
-        <v>0.9948220440517318</v>
+        <v>1.029462024633087</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.016251075512768</v>
       </c>
       <c r="F12">
-        <v>0.9961859089688976</v>
+        <v>1.028812505873787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033031713558791</v>
+        <v>1.048897742457216</v>
       </c>
       <c r="J12">
-        <v>0.9978476294450987</v>
+        <v>1.039202894994535</v>
       </c>
       <c r="K12">
-        <v>1.010049122448047</v>
+        <v>1.04404573909445</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.031073415706365</v>
       </c>
       <c r="M12">
-        <v>1.011386547571877</v>
+        <v>1.043407766500323</v>
       </c>
       <c r="N12">
-        <v>0.9992646875336336</v>
+        <v>1.040678682303665</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.967192496261906</v>
+        <v>1.010189172243372</v>
       </c>
       <c r="D13">
-        <v>0.9953170533225491</v>
+        <v>1.029764599698446</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.016569745850689</v>
       </c>
       <c r="F13">
-        <v>0.9967177853793873</v>
+        <v>1.029149494526128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033235567609878</v>
+        <v>1.049042172173084</v>
       </c>
       <c r="J13">
-        <v>0.9983553118866756</v>
+        <v>1.039477413259549</v>
       </c>
       <c r="K13">
-        <v>1.010490186976473</v>
+        <v>1.044300744821987</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.031343242813888</v>
       </c>
       <c r="M13">
-        <v>1.011863892468756</v>
+        <v>1.043696528841649</v>
       </c>
       <c r="N13">
-        <v>0.9997730909425095</v>
+        <v>1.040953590416103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9692601963182986</v>
+        <v>1.011433620425011</v>
       </c>
       <c r="D14">
-        <v>0.9969286378689374</v>
+        <v>1.030752401376836</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.017610370299799</v>
       </c>
       <c r="F14">
-        <v>0.9984495216780208</v>
+        <v>1.030249805941263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033898759361609</v>
+        <v>1.04951331993624</v>
       </c>
       <c r="J14">
-        <v>1.000007733780238</v>
+        <v>1.040373349540692</v>
       </c>
       <c r="K14">
-        <v>1.011925754193483</v>
+        <v>1.045133015968357</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.03222419450904</v>
       </c>
       <c r="M14">
-        <v>1.013417744437114</v>
+        <v>1.044639197533192</v>
       </c>
       <c r="N14">
-        <v>1.001427859464695</v>
+        <v>1.041850799029531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9705238104248439</v>
+        <v>1.012196715617732</v>
       </c>
       <c r="D15">
-        <v>0.9979138008502828</v>
+        <v>1.031358283882901</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.018248863867402</v>
       </c>
       <c r="F15">
-        <v>0.9995082287611566</v>
+        <v>1.030924821368842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034303795027435</v>
+        <v>1.049802026282745</v>
       </c>
       <c r="J15">
-        <v>1.00101754216069</v>
+        <v>1.040922679542883</v>
       </c>
       <c r="K15">
-        <v>1.01280302029082</v>
+        <v>1.045643323437748</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.0327645849578</v>
       </c>
       <c r="M15">
-        <v>1.014367445910916</v>
+        <v>1.045217367047079</v>
       </c>
       <c r="N15">
-        <v>1.002439101888875</v>
+        <v>1.042400909143334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9777276335620076</v>
+        <v>1.016584038628837</v>
       </c>
       <c r="D16">
-        <v>1.003534237328084</v>
+        <v>1.034844102456227</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>1.021925482282846</v>
       </c>
       <c r="F16">
-        <v>1.005549673967818</v>
+        <v>1.034810252445611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036608903303726</v>
+        <v>1.051458807166987</v>
       </c>
       <c r="J16">
-        <v>1.00677394535916</v>
+        <v>1.04408005111427</v>
       </c>
       <c r="K16">
-        <v>1.017803480823917</v>
+        <v>1.048576582814319</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>1.035874287292577</v>
       </c>
       <c r="M16">
-        <v>1.019783059652767</v>
+        <v>1.048543290548259</v>
       </c>
       <c r="N16">
-        <v>1.008203679840156</v>
+        <v>1.045562764544508</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9821208268882524</v>
+        <v>1.019289919986802</v>
       </c>
       <c r="D17">
-        <v>1.006965041225748</v>
+        <v>1.036995961750047</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>1.024197890689378</v>
       </c>
       <c r="F17">
-        <v>1.009238722651701</v>
+        <v>1.037210442543987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038011007242624</v>
+        <v>1.052477849912739</v>
       </c>
       <c r="J17">
-        <v>1.010283847757493</v>
+        <v>1.046026478228544</v>
       </c>
       <c r="K17">
-        <v>1.020852040292264</v>
+        <v>1.05038498859753</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.0377945409973</v>
       </c>
       <c r="M17">
-        <v>1.023086679756392</v>
+        <v>1.050596045819646</v>
       </c>
       <c r="N17">
-        <v>1.011718566702485</v>
+        <v>1.047511955808543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9846407663098485</v>
+        <v>1.020852178308557</v>
       </c>
       <c r="D18">
-        <v>1.00893399527764</v>
+        <v>1.038239027259634</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>1.025511580306269</v>
       </c>
       <c r="F18">
-        <v>1.011356335982402</v>
+        <v>1.038597553559047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038813883655049</v>
+        <v>1.053065179488178</v>
       </c>
       <c r="J18">
-        <v>1.012296853642581</v>
+        <v>1.047149919527656</v>
       </c>
       <c r="K18">
-        <v>1.022600277885067</v>
+        <v>1.051428809220637</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.038904016193554</v>
       </c>
       <c r="M18">
-        <v>1.024981881784556</v>
+        <v>1.051781718852036</v>
       </c>
       <c r="N18">
-        <v>1.013734431286826</v>
+        <v>1.04863699252316</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854930259092355</v>
+        <v>1.021382202828573</v>
       </c>
       <c r="D19">
-        <v>1.009600074375101</v>
+        <v>1.038660870978743</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>1.025957557413114</v>
       </c>
       <c r="F19">
-        <v>1.012072781773583</v>
+        <v>1.039068380756851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039085183540471</v>
+        <v>1.053264266411528</v>
       </c>
       <c r="J19">
-        <v>1.01297761241364</v>
+        <v>1.047531007344529</v>
       </c>
       <c r="K19">
-        <v>1.023191464498042</v>
+        <v>1.051782895150025</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>1.039280558592849</v>
       </c>
       <c r="M19">
-        <v>1.025622883534745</v>
+        <v>1.052184061757345</v>
       </c>
       <c r="N19">
-        <v>1.014416156813424</v>
+        <v>1.049018621528444</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9816539366352137</v>
+        <v>1.01900127643523</v>
       </c>
       <c r="D20">
-        <v>1.006600318676854</v>
+        <v>1.036766346240284</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>1.023955309310926</v>
       </c>
       <c r="F20">
-        <v>1.008846499595418</v>
+        <v>1.036954267285517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037862138964194</v>
+        <v>1.052369251491628</v>
       </c>
       <c r="J20">
-        <v>1.009910857446906</v>
+        <v>1.045818882576252</v>
       </c>
       <c r="K20">
-        <v>1.020528093882606</v>
+        <v>1.050192108994096</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.037589618057002</v>
       </c>
       <c r="M20">
-        <v>1.02273555737629</v>
+        <v>1.050377020119232</v>
       </c>
       <c r="N20">
-        <v>1.011345046702875</v>
+        <v>1.047304065346613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9686534875038462</v>
+        <v>1.011067925635766</v>
       </c>
       <c r="D21">
-        <v>0.9964557018495792</v>
+        <v>1.030462090744372</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.017304491077022</v>
       </c>
       <c r="F21">
-        <v>0.9979413059754286</v>
+        <v>1.029926403413983</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033704217101362</v>
+        <v>1.049374909884605</v>
       </c>
       <c r="J21">
-        <v>0.999522880635023</v>
+        <v>1.040110080734012</v>
       </c>
       <c r="K21">
-        <v>1.011504534607656</v>
+        <v>1.04488845230012</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>1.031965276991302</v>
       </c>
       <c r="M21">
-        <v>1.012961786194209</v>
+        <v>1.044362157558814</v>
       </c>
       <c r="N21">
-        <v>1.000942317772402</v>
+        <v>1.041587156350948</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9600340835041731</v>
+        <v>1.005922070689062</v>
       </c>
       <c r="D22">
-        <v>0.9897424416535811</v>
+        <v>1.026380048233338</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.013007392561068</v>
       </c>
       <c r="F22">
-        <v>0.9907289976858973</v>
+        <v>1.02538129170961</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030935902424431</v>
+        <v>1.047423687655394</v>
       </c>
       <c r="J22">
-        <v>0.9926344643594278</v>
+        <v>1.036404520807175</v>
       </c>
       <c r="K22">
-        <v>1.005519878802736</v>
+        <v>1.041446420222683</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.028325500687905</v>
       </c>
       <c r="M22">
-        <v>1.00648637969538</v>
+        <v>1.040466169102626</v>
       </c>
       <c r="N22">
-        <v>0.9940441191555828</v>
+        <v>1.037876334103981</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9646490026550735</v>
+        <v>1.008665635680043</v>
       </c>
       <c r="D23">
-        <v>0.9933354565680896</v>
+        <v>1.028555718469784</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.015296795659743</v>
       </c>
       <c r="F23">
-        <v>0.9945887104095142</v>
+        <v>1.027803257596596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0324190923888</v>
+        <v>1.048464820676381</v>
       </c>
       <c r="J23">
-        <v>0.9963226165091547</v>
+        <v>1.038380397284103</v>
       </c>
       <c r="K23">
-        <v>1.00872420288243</v>
+        <v>1.043281719128681</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>1.030265251961515</v>
       </c>
       <c r="M23">
-        <v>1.009952816794256</v>
+        <v>1.042542800312122</v>
       </c>
       <c r="N23">
-        <v>0.9977375089043992</v>
+        <v>1.039855016552142</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9818650350523886</v>
+        <v>1.019131751448163</v>
       </c>
       <c r="D24">
-        <v>1.006765220066701</v>
+        <v>1.036870136828843</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.024064957660573</v>
       </c>
       <c r="F24">
-        <v>1.009023833338562</v>
+        <v>1.037070061549336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037929452122397</v>
+        <v>1.052418344211315</v>
       </c>
       <c r="J24">
-        <v>1.01007950109131</v>
+        <v>1.045912722721065</v>
       </c>
       <c r="K24">
-        <v>1.020674563403998</v>
+        <v>1.050279296864216</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.037682246510024</v>
       </c>
       <c r="M24">
-        <v>1.022894312108034</v>
+        <v>1.050476024355756</v>
       </c>
       <c r="N24">
-        <v>1.011513929840598</v>
+        <v>1.047398038755196</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000193481146294</v>
+        <v>1.03065328285404</v>
       </c>
       <c r="D25">
-        <v>1.021101289851096</v>
+        <v>1.046048552082667</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>1.033782069207333</v>
       </c>
       <c r="F25">
-        <v>1.024450214501591</v>
+        <v>1.047322577903862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043743516564444</v>
+        <v>1.056731170538362</v>
       </c>
       <c r="J25">
-        <v>1.024714335633004</v>
+        <v>1.054191316413714</v>
       </c>
       <c r="K25">
-        <v>1.033380634327375</v>
+        <v>1.05797173492541</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>1.045877657287234</v>
       </c>
       <c r="M25">
-        <v>1.036680469094491</v>
+        <v>1.059228146212905</v>
       </c>
       <c r="N25">
-        <v>1.02616954752598</v>
+        <v>1.055688389000455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039400863618774</v>
+        <v>1.069207786466924</v>
       </c>
       <c r="D2">
-        <v>1.0530338134547</v>
+        <v>1.072378388838149</v>
       </c>
       <c r="E2">
-        <v>1.041206662425674</v>
+        <v>1.07150096090519</v>
       </c>
       <c r="F2">
-        <v>1.055143568329136</v>
+        <v>1.082863914496079</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05997198613209</v>
+        <v>1.054163625004125</v>
       </c>
       <c r="J2">
-        <v>1.060463740293308</v>
+        <v>1.074143681852799</v>
       </c>
       <c r="K2">
-        <v>1.063800626887718</v>
+        <v>1.075073061932072</v>
       </c>
       <c r="L2">
-        <v>1.052120289042473</v>
+        <v>1.074197967000746</v>
       </c>
       <c r="M2">
-        <v>1.065884622863073</v>
+        <v>1.08553102344964</v>
       </c>
       <c r="N2">
-        <v>1.061969720441416</v>
+        <v>1.075669089087033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.045522498772851</v>
+        <v>1.070455277658043</v>
       </c>
       <c r="D3">
-        <v>1.05793015197643</v>
+        <v>1.073396408285127</v>
       </c>
       <c r="E3">
-        <v>1.046427590608858</v>
+        <v>1.07264728027479</v>
       </c>
       <c r="F3">
-        <v>1.060636355861628</v>
+        <v>1.084051031842779</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062219494998926</v>
+        <v>1.054553841754828</v>
       </c>
       <c r="J3">
-        <v>1.06484467244718</v>
+        <v>1.075046830601396</v>
       </c>
       <c r="K3">
-        <v>1.067871813934291</v>
+        <v>1.075907318026839</v>
       </c>
       <c r="L3">
-        <v>1.056498982951025</v>
+        <v>1.075160037499017</v>
       </c>
       <c r="M3">
-        <v>1.070547998971021</v>
+        <v>1.086535962520786</v>
       </c>
       <c r="N3">
-        <v>1.066356874021447</v>
+        <v>1.076573520410445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.049385026159141</v>
+        <v>1.07126211954777</v>
       </c>
       <c r="D4">
-        <v>1.061022769639159</v>
+        <v>1.074054817702858</v>
       </c>
       <c r="E4">
-        <v>1.049732836425725</v>
+        <v>1.073389450779015</v>
       </c>
       <c r="F4">
-        <v>1.064110656202202</v>
+        <v>1.084819407441205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063627824322189</v>
+        <v>1.054804946869104</v>
       </c>
       <c r="J4">
-        <v>1.06760459710342</v>
+        <v>1.075630310466</v>
       </c>
       <c r="K4">
-        <v>1.070436530915449</v>
+        <v>1.076446207677332</v>
       </c>
       <c r="L4">
-        <v>1.059265913147381</v>
+        <v>1.075782398852134</v>
       </c>
       <c r="M4">
-        <v>1.073492322026915</v>
+        <v>1.087185874465074</v>
       </c>
       <c r="N4">
-        <v>1.069120718087266</v>
+        <v>1.077157828883383</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.050986302232836</v>
+        <v>1.071601229949245</v>
       </c>
       <c r="D5">
-        <v>1.06230556838381</v>
+        <v>1.074331538206241</v>
       </c>
       <c r="E5">
-        <v>1.051105647834823</v>
+        <v>1.073701562120818</v>
       </c>
       <c r="F5">
-        <v>1.065552968751202</v>
+        <v>1.085142489216777</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064209282917098</v>
+        <v>1.05491017902914</v>
       </c>
       <c r="J5">
-        <v>1.068747697514012</v>
+        <v>1.075875387060044</v>
       </c>
       <c r="K5">
-        <v>1.071498750552123</v>
+        <v>1.076672535427474</v>
       </c>
       <c r="L5">
-        <v>1.060413912279036</v>
+        <v>1.076044001638469</v>
       </c>
       <c r="M5">
-        <v>1.074713333563435</v>
+        <v>1.087459014650369</v>
       </c>
       <c r="N5">
-        <v>1.070265441831556</v>
+        <v>1.077403253514301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.051253872139615</v>
+        <v>1.071658163104293</v>
       </c>
       <c r="D6">
-        <v>1.0625199607473</v>
+        <v>1.074377996442016</v>
       </c>
       <c r="E6">
-        <v>1.051335190375877</v>
+        <v>1.073753973051244</v>
       </c>
       <c r="F6">
-        <v>1.065794090811428</v>
+        <v>1.085196739429747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064306301746325</v>
+        <v>1.054927828496318</v>
       </c>
       <c r="J6">
-        <v>1.068938642841979</v>
+        <v>1.075916523734888</v>
       </c>
       <c r="K6">
-        <v>1.071676183304892</v>
+        <v>1.076710523899388</v>
       </c>
       <c r="L6">
-        <v>1.060605792745523</v>
+        <v>1.076087923702388</v>
       </c>
       <c r="M6">
-        <v>1.074917383338702</v>
+        <v>1.087504871268857</v>
       </c>
       <c r="N6">
-        <v>1.07045665832379</v>
+        <v>1.077444448607941</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04940650965391</v>
+        <v>1.071266651092375</v>
       </c>
       <c r="D7">
-        <v>1.061039977600077</v>
+        <v>1.074058515548329</v>
       </c>
       <c r="E7">
-        <v>1.049751244685874</v>
+        <v>1.07339362082053</v>
       </c>
       <c r="F7">
-        <v>1.064129999215002</v>
+        <v>1.084823724251382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063635634953003</v>
+        <v>1.054806354291811</v>
       </c>
       <c r="J7">
-        <v>1.06761993779312</v>
+        <v>1.075633586047658</v>
       </c>
       <c r="K7">
-        <v>1.070450786300163</v>
+        <v>1.076449232748561</v>
       </c>
       <c r="L7">
-        <v>1.059281311706497</v>
+        <v>1.075785894549145</v>
       </c>
       <c r="M7">
-        <v>1.073508702238451</v>
+        <v>1.087189524501438</v>
       </c>
       <c r="N7">
-        <v>1.069136080562505</v>
+        <v>1.077161109116743</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.041490777411672</v>
+        <v>1.069629459574768</v>
       </c>
       <c r="D8">
-        <v>1.054704695967048</v>
+        <v>1.072722499644674</v>
       </c>
       <c r="E8">
-        <v>1.04298670480005</v>
+        <v>1.071888277499122</v>
       </c>
       <c r="F8">
-        <v>1.057016951653106</v>
+        <v>1.083265059254316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060741307478196</v>
+        <v>1.054295789021958</v>
       </c>
       <c r="J8">
-        <v>1.061960254045694</v>
+        <v>1.074449096058563</v>
       </c>
       <c r="K8">
-        <v>1.065191339990869</v>
+        <v>1.075355195901342</v>
       </c>
       <c r="L8">
-        <v>1.053614251790357</v>
+        <v>1.074523137496834</v>
       </c>
       <c r="M8">
-        <v>1.067476249046912</v>
+        <v>1.085870720675424</v>
       </c>
       <c r="N8">
-        <v>1.063468359414983</v>
+        <v>1.075974937016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.02673522351388</v>
+        <v>1.066741597065904</v>
       </c>
       <c r="D9">
-        <v>1.042924416357794</v>
+        <v>1.070365788146631</v>
       </c>
       <c r="E9">
-        <v>1.030469866526952</v>
+        <v>1.069238878889151</v>
       </c>
       <c r="F9">
-        <v>1.043829951192672</v>
+        <v>1.08052020514547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055269731020806</v>
+        <v>1.053385424327093</v>
       </c>
       <c r="J9">
-        <v>1.051377973672893</v>
+        <v>1.072354782498356</v>
       </c>
       <c r="K9">
-        <v>1.055357451787516</v>
+        <v>1.073420190263292</v>
       </c>
       <c r="L9">
-        <v>1.043087204458543</v>
+        <v>1.072296707920741</v>
       </c>
       <c r="M9">
-        <v>1.056249804035654</v>
+        <v>1.083544079035063</v>
       </c>
       <c r="N9">
-        <v>1.052871050990247</v>
+        <v>1.073877649290316</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016276035345765</v>
+        <v>1.064814247612831</v>
       </c>
       <c r="D10">
-        <v>1.034599257002461</v>
+        <v>1.068792905176694</v>
       </c>
       <c r="E10">
-        <v>1.021667055680827</v>
+        <v>1.0674747007018</v>
       </c>
       <c r="F10">
-        <v>1.034537231903785</v>
+        <v>1.078691369281623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051342674285044</v>
+        <v>1.052771290599237</v>
       </c>
       <c r="J10">
-        <v>1.043858449597304</v>
+        <v>1.070953717330613</v>
       </c>
       <c r="K10">
-        <v>1.048370701396512</v>
+        <v>1.072125289593025</v>
       </c>
       <c r="L10">
-        <v>1.03565582263584</v>
+        <v>1.070811488676055</v>
       </c>
       <c r="M10">
-        <v>1.048309701925453</v>
+        <v>1.081991064184378</v>
       </c>
       <c r="N10">
-        <v>1.04534084832797</v>
+        <v>1.07247459444933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.011579496767591</v>
+        <v>1.063979151514958</v>
       </c>
       <c r="D11">
-        <v>1.030868214766015</v>
+        <v>1.06811139903261</v>
       </c>
       <c r="E11">
-        <v>1.017732404761262</v>
+        <v>1.066711270864525</v>
       </c>
       <c r="F11">
-        <v>1.030378826672675</v>
+        <v>1.077899696537591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049568522144311</v>
+        <v>1.052503640960904</v>
       </c>
       <c r="J11">
-        <v>1.040478365138216</v>
+        <v>1.070345868431243</v>
       </c>
       <c r="K11">
-        <v>1.045230570873507</v>
+        <v>1.071563404622747</v>
       </c>
       <c r="L11">
-        <v>1.032327486505346</v>
+        <v>1.070168135813366</v>
       </c>
       <c r="M11">
-        <v>1.044749715405656</v>
+        <v>1.081318118073078</v>
       </c>
       <c r="N11">
-        <v>1.041955963761248</v>
+        <v>1.071865882334803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.009807899969137</v>
+        <v>1.063668875450595</v>
       </c>
       <c r="D12">
-        <v>1.029462024633087</v>
+        <v>1.067858189997397</v>
       </c>
       <c r="E12">
-        <v>1.016251075512768</v>
+        <v>1.06642776828423</v>
       </c>
       <c r="F12">
-        <v>1.028812505873787</v>
+        <v>1.077605666078925</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048897742457216</v>
+        <v>1.052403963816418</v>
       </c>
       <c r="J12">
-        <v>1.039202894994535</v>
+        <v>1.07011990738589</v>
       </c>
       <c r="K12">
-        <v>1.04404573909445</v>
+        <v>1.071354516003255</v>
       </c>
       <c r="L12">
-        <v>1.031073415706365</v>
+        <v>1.069929127980798</v>
       </c>
       <c r="M12">
-        <v>1.043407766500323</v>
+        <v>1.081068082094609</v>
       </c>
       <c r="N12">
-        <v>1.040678682303665</v>
+        <v>1.071639600398846</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010189172243372</v>
+        <v>1.06373543457614</v>
       </c>
       <c r="D13">
-        <v>1.029764599698446</v>
+        <v>1.067912507266453</v>
       </c>
       <c r="E13">
-        <v>1.016569745850689</v>
+        <v>1.066488577440424</v>
       </c>
       <c r="F13">
-        <v>1.029149494526128</v>
+        <v>1.077668735189061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049042172173084</v>
+        <v>1.052425356688954</v>
       </c>
       <c r="J13">
-        <v>1.039477413259549</v>
+        <v>1.070168384922553</v>
       </c>
       <c r="K13">
-        <v>1.044300744821987</v>
+        <v>1.071399331470395</v>
       </c>
       <c r="L13">
-        <v>1.031343242813888</v>
+        <v>1.069980397711444</v>
       </c>
       <c r="M13">
-        <v>1.043696528841649</v>
+        <v>1.081121719028262</v>
       </c>
       <c r="N13">
-        <v>1.040953590416103</v>
+        <v>1.071688146779173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.011433620425011</v>
+        <v>1.063953505732962</v>
       </c>
       <c r="D14">
-        <v>1.030752401376836</v>
+        <v>1.06809047007707</v>
       </c>
       <c r="E14">
-        <v>1.017610370299799</v>
+        <v>1.06668783504877</v>
       </c>
       <c r="F14">
-        <v>1.030249805941263</v>
+        <v>1.077875391244786</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04951331993624</v>
+        <v>1.052495406929201</v>
       </c>
       <c r="J14">
-        <v>1.040373349540692</v>
+        <v>1.070327194080978</v>
       </c>
       <c r="K14">
-        <v>1.045133015968357</v>
+        <v>1.071546141495653</v>
       </c>
       <c r="L14">
-        <v>1.03222419450904</v>
+        <v>1.07014838013336</v>
       </c>
       <c r="M14">
-        <v>1.044639197533192</v>
+        <v>1.081297451536765</v>
       </c>
       <c r="N14">
-        <v>1.041850799029531</v>
+        <v>1.071847181464818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012196715617732</v>
+        <v>1.064087855326914</v>
       </c>
       <c r="D15">
-        <v>1.031358283882901</v>
+        <v>1.068200109871449</v>
       </c>
       <c r="E15">
-        <v>1.018248863867402</v>
+        <v>1.066810613369251</v>
       </c>
       <c r="F15">
-        <v>1.030924821368842</v>
+        <v>1.078002723054108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049802026282745</v>
+        <v>1.052538532694969</v>
       </c>
       <c r="J15">
-        <v>1.040922679542883</v>
+        <v>1.070425017883403</v>
       </c>
       <c r="K15">
-        <v>1.045643323437748</v>
+        <v>1.071636572161734</v>
       </c>
       <c r="L15">
-        <v>1.0327645849578</v>
+        <v>1.070251874578846</v>
       </c>
       <c r="M15">
-        <v>1.045217367047079</v>
+        <v>1.081405716302555</v>
       </c>
       <c r="N15">
-        <v>1.042400909143334</v>
+        <v>1.071945144188263</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016584038628837</v>
+        <v>1.064869658543329</v>
       </c>
       <c r="D16">
-        <v>1.034844102456227</v>
+        <v>1.068838125143162</v>
       </c>
       <c r="E16">
-        <v>1.021925482282846</v>
+        <v>1.067525376820167</v>
       </c>
       <c r="F16">
-        <v>1.034810252445611</v>
+        <v>1.078743914587152</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051458807166987</v>
+        <v>1.052789017190397</v>
       </c>
       <c r="J16">
-        <v>1.04408005111427</v>
+        <v>1.070994033273816</v>
       </c>
       <c r="K16">
-        <v>1.048576582814319</v>
+        <v>1.072162554958907</v>
       </c>
       <c r="L16">
-        <v>1.035874287292577</v>
+        <v>1.070854180644295</v>
       </c>
       <c r="M16">
-        <v>1.048543290548259</v>
+        <v>1.082035715138577</v>
       </c>
       <c r="N16">
-        <v>1.045562764544508</v>
+        <v>1.072514967645798</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019289919986802</v>
+        <v>1.065359916139815</v>
       </c>
       <c r="D17">
-        <v>1.036995961750047</v>
+        <v>1.069238217031639</v>
       </c>
       <c r="E17">
-        <v>1.024197890689378</v>
+        <v>1.067973854077841</v>
       </c>
       <c r="F17">
-        <v>1.037210442543987</v>
+        <v>1.079208903494984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052477849912739</v>
+        <v>1.052945676856275</v>
       </c>
       <c r="J17">
-        <v>1.046026478228544</v>
+        <v>1.071350644787039</v>
       </c>
       <c r="K17">
-        <v>1.05038498859753</v>
+        <v>1.072492171852921</v>
       </c>
       <c r="L17">
-        <v>1.0377945409973</v>
+        <v>1.071231925241523</v>
       </c>
       <c r="M17">
-        <v>1.050596045819646</v>
+        <v>1.082430766974451</v>
       </c>
       <c r="N17">
-        <v>1.047511955808543</v>
+        <v>1.072872085588273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.020852178308557</v>
+        <v>1.065645823093779</v>
       </c>
       <c r="D18">
-        <v>1.038239027259634</v>
+        <v>1.069471541763467</v>
       </c>
       <c r="E18">
-        <v>1.025511580306269</v>
+        <v>1.068235488818398</v>
       </c>
       <c r="F18">
-        <v>1.038597553559047</v>
+        <v>1.079480145514336</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053065179488178</v>
+        <v>1.053036887346255</v>
       </c>
       <c r="J18">
-        <v>1.047149919527656</v>
+        <v>1.071558536673725</v>
       </c>
       <c r="K18">
-        <v>1.051428809220637</v>
+        <v>1.072684317637351</v>
       </c>
       <c r="L18">
-        <v>1.038904016193554</v>
+        <v>1.071452233912052</v>
       </c>
       <c r="M18">
-        <v>1.051781718852036</v>
+        <v>1.082661147784605</v>
       </c>
       <c r="N18">
-        <v>1.04863699252316</v>
+        <v>1.073080272705284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021382202828573</v>
+        <v>1.065743301242422</v>
       </c>
       <c r="D19">
-        <v>1.038660870978743</v>
+        <v>1.069551092374395</v>
       </c>
       <c r="E19">
-        <v>1.025957557413114</v>
+        <v>1.068324707273622</v>
       </c>
       <c r="F19">
-        <v>1.039068380756851</v>
+        <v>1.079572635794336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053264266411528</v>
+        <v>1.05306795956129</v>
       </c>
       <c r="J19">
-        <v>1.047531007344529</v>
+        <v>1.071629403225866</v>
       </c>
       <c r="K19">
-        <v>1.051782895150025</v>
+        <v>1.072749815065808</v>
       </c>
       <c r="L19">
-        <v>1.039280558592849</v>
+        <v>1.071527349554866</v>
       </c>
       <c r="M19">
-        <v>1.052184061757345</v>
+        <v>1.082739693893265</v>
       </c>
       <c r="N19">
-        <v>1.049018621528444</v>
+        <v>1.073151239896058</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.01900127643523</v>
+        <v>1.065307321541102</v>
       </c>
       <c r="D20">
-        <v>1.036766346240284</v>
+        <v>1.069195295325267</v>
       </c>
       <c r="E20">
-        <v>1.023955309310926</v>
+        <v>1.067925732013513</v>
       </c>
       <c r="F20">
-        <v>1.036954267285517</v>
+        <v>1.079159012339129</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052369251491628</v>
+        <v>1.052928885979611</v>
       </c>
       <c r="J20">
-        <v>1.045818882576252</v>
+        <v>1.071312395508623</v>
       </c>
       <c r="K20">
-        <v>1.050192108994096</v>
+        <v>1.0724568189014</v>
       </c>
       <c r="L20">
-        <v>1.037589618057002</v>
+        <v>1.071191399248711</v>
       </c>
       <c r="M20">
-        <v>1.050377020119232</v>
+        <v>1.082388386447128</v>
       </c>
       <c r="N20">
-        <v>1.047304065346613</v>
+        <v>1.072833781991495</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011067925635766</v>
+        <v>1.063889291559977</v>
       </c>
       <c r="D21">
-        <v>1.030462090744372</v>
+        <v>1.068038066335805</v>
       </c>
       <c r="E21">
-        <v>1.017304491077022</v>
+        <v>1.066629156749853</v>
       </c>
       <c r="F21">
-        <v>1.029926403413983</v>
+        <v>1.077814535316905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049374909884605</v>
+        <v>1.052474786068001</v>
       </c>
       <c r="J21">
-        <v>1.040110080734012</v>
+        <v>1.070280433695448</v>
       </c>
       <c r="K21">
-        <v>1.04488845230012</v>
+        <v>1.071502914570765</v>
       </c>
       <c r="L21">
-        <v>1.031965276991302</v>
+        <v>1.070098914555442</v>
       </c>
       <c r="M21">
-        <v>1.044362157558814</v>
+        <v>1.08124570474437</v>
       </c>
       <c r="N21">
-        <v>1.041587156350948</v>
+        <v>1.071800354674178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.005922070689062</v>
+        <v>1.062997231285331</v>
       </c>
       <c r="D22">
-        <v>1.026380048233338</v>
+        <v>1.067310080318416</v>
       </c>
       <c r="E22">
-        <v>1.013007392561068</v>
+        <v>1.065814348349443</v>
       </c>
       <c r="F22">
-        <v>1.02538129170961</v>
+        <v>1.076969393776884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047423687655394</v>
+        <v>1.052187769832376</v>
       </c>
       <c r="J22">
-        <v>1.036404520807175</v>
+        <v>1.069630562365976</v>
       </c>
       <c r="K22">
-        <v>1.041446420222683</v>
+        <v>1.070902117606251</v>
       </c>
       <c r="L22">
-        <v>1.028325500687905</v>
+        <v>1.069411805893983</v>
       </c>
       <c r="M22">
-        <v>1.040466169102626</v>
+        <v>1.080526827428072</v>
       </c>
       <c r="N22">
-        <v>1.037876334103981</v>
+        <v>1.071149560452876</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008665635680043</v>
+        <v>1.063470176594487</v>
       </c>
       <c r="D23">
-        <v>1.028555718469784</v>
+        <v>1.067696037000993</v>
       </c>
       <c r="E23">
-        <v>1.015296795659743</v>
+        <v>1.066246256293948</v>
       </c>
       <c r="F23">
-        <v>1.027803257596596</v>
+        <v>1.07741740240761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048464820676381</v>
+        <v>1.052340065579564</v>
       </c>
       <c r="J23">
-        <v>1.038380397284103</v>
+        <v>1.06997517027275</v>
       </c>
       <c r="K23">
-        <v>1.043281719128681</v>
+        <v>1.071220710500067</v>
       </c>
       <c r="L23">
-        <v>1.030265251961515</v>
+        <v>1.069776076536865</v>
       </c>
       <c r="M23">
-        <v>1.042542800312122</v>
+        <v>1.08090795901477</v>
       </c>
       <c r="N23">
-        <v>1.039855016552142</v>
+        <v>1.071494657742405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019131751448163</v>
+        <v>1.065331086937029</v>
       </c>
       <c r="D24">
-        <v>1.036870136828843</v>
+        <v>1.069214689926987</v>
       </c>
       <c r="E24">
-        <v>1.024064957660573</v>
+        <v>1.067947476162379</v>
       </c>
       <c r="F24">
-        <v>1.037070061549336</v>
+        <v>1.079181555937476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052418344211315</v>
+        <v>1.052936473568325</v>
       </c>
       <c r="J24">
-        <v>1.045912722721065</v>
+        <v>1.071329679062077</v>
       </c>
       <c r="K24">
-        <v>1.050279296864216</v>
+        <v>1.072472793731263</v>
       </c>
       <c r="L24">
-        <v>1.037682246510024</v>
+        <v>1.07120971127271</v>
       </c>
       <c r="M24">
-        <v>1.050476024355756</v>
+        <v>1.082407536526126</v>
       </c>
       <c r="N24">
-        <v>1.047398038755196</v>
+        <v>1.072851090089577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.03065328285404</v>
+        <v>1.06748853974025</v>
       </c>
       <c r="D25">
-        <v>1.046048552082667</v>
+        <v>1.07097535614834</v>
       </c>
       <c r="E25">
-        <v>1.033782069207333</v>
+        <v>1.069923438863216</v>
       </c>
       <c r="F25">
-        <v>1.047322577903862</v>
+        <v>1.081229621459584</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056731170538362</v>
+        <v>1.053622045681393</v>
       </c>
       <c r="J25">
-        <v>1.054191316413714</v>
+        <v>1.072897062169252</v>
       </c>
       <c r="K25">
-        <v>1.05797173492541</v>
+        <v>1.073921293261803</v>
       </c>
       <c r="L25">
-        <v>1.045877657287234</v>
+        <v>1.07287245295634</v>
       </c>
       <c r="M25">
-        <v>1.059228146212905</v>
+        <v>1.084145904449916</v>
       </c>
       <c r="N25">
-        <v>1.055688389000455</v>
+        <v>1.074420699060546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069207786466924</v>
+        <v>1.039400863618775</v>
       </c>
       <c r="D2">
-        <v>1.072378388838149</v>
+        <v>1.053033813454701</v>
       </c>
       <c r="E2">
-        <v>1.07150096090519</v>
+        <v>1.041206662425674</v>
       </c>
       <c r="F2">
-        <v>1.082863914496079</v>
+        <v>1.055143568329137</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054163625004125</v>
+        <v>1.05997198613209</v>
       </c>
       <c r="J2">
-        <v>1.074143681852799</v>
+        <v>1.060463740293309</v>
       </c>
       <c r="K2">
-        <v>1.075073061932072</v>
+        <v>1.063800626887719</v>
       </c>
       <c r="L2">
-        <v>1.074197967000746</v>
+        <v>1.052120289042473</v>
       </c>
       <c r="M2">
-        <v>1.08553102344964</v>
+        <v>1.065884622863073</v>
       </c>
       <c r="N2">
-        <v>1.075669089087033</v>
+        <v>1.061969720441417</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070455277658043</v>
+        <v>1.04552249877285</v>
       </c>
       <c r="D3">
-        <v>1.073396408285127</v>
+        <v>1.05793015197643</v>
       </c>
       <c r="E3">
-        <v>1.07264728027479</v>
+        <v>1.046427590608858</v>
       </c>
       <c r="F3">
-        <v>1.084051031842779</v>
+        <v>1.060636355861627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054553841754828</v>
+        <v>1.062219494998926</v>
       </c>
       <c r="J3">
-        <v>1.075046830601396</v>
+        <v>1.06484467244718</v>
       </c>
       <c r="K3">
-        <v>1.075907318026839</v>
+        <v>1.067871813934291</v>
       </c>
       <c r="L3">
-        <v>1.075160037499017</v>
+        <v>1.056498982951025</v>
       </c>
       <c r="M3">
-        <v>1.086535962520786</v>
+        <v>1.07054799897102</v>
       </c>
       <c r="N3">
-        <v>1.076573520410445</v>
+        <v>1.066356874021446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07126211954777</v>
+        <v>1.049385026159142</v>
       </c>
       <c r="D4">
-        <v>1.074054817702858</v>
+        <v>1.06102276963916</v>
       </c>
       <c r="E4">
-        <v>1.073389450779015</v>
+        <v>1.049732836425726</v>
       </c>
       <c r="F4">
-        <v>1.084819407441205</v>
+        <v>1.064110656202204</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054804946869104</v>
+        <v>1.06362782432219</v>
       </c>
       <c r="J4">
-        <v>1.075630310466</v>
+        <v>1.067604597103421</v>
       </c>
       <c r="K4">
-        <v>1.076446207677332</v>
+        <v>1.07043653091545</v>
       </c>
       <c r="L4">
-        <v>1.075782398852134</v>
+        <v>1.059265913147382</v>
       </c>
       <c r="M4">
-        <v>1.087185874465074</v>
+        <v>1.073492322026917</v>
       </c>
       <c r="N4">
-        <v>1.077157828883383</v>
+        <v>1.069120718087267</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.071601229949245</v>
+        <v>1.050986302232836</v>
       </c>
       <c r="D5">
-        <v>1.074331538206241</v>
+        <v>1.06230556838381</v>
       </c>
       <c r="E5">
-        <v>1.073701562120818</v>
+        <v>1.051105647834824</v>
       </c>
       <c r="F5">
-        <v>1.085142489216777</v>
+        <v>1.065552968751202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05491017902914</v>
+        <v>1.064209282917098</v>
       </c>
       <c r="J5">
-        <v>1.075875387060044</v>
+        <v>1.068747697514012</v>
       </c>
       <c r="K5">
-        <v>1.076672535427474</v>
+        <v>1.071498750552123</v>
       </c>
       <c r="L5">
-        <v>1.076044001638469</v>
+        <v>1.060413912279036</v>
       </c>
       <c r="M5">
-        <v>1.087459014650369</v>
+        <v>1.074713333563435</v>
       </c>
       <c r="N5">
-        <v>1.077403253514301</v>
+        <v>1.070265441831556</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071658163104293</v>
+        <v>1.051253872139615</v>
       </c>
       <c r="D6">
-        <v>1.074377996442016</v>
+        <v>1.062519960747301</v>
       </c>
       <c r="E6">
-        <v>1.073753973051244</v>
+        <v>1.051335190375877</v>
       </c>
       <c r="F6">
-        <v>1.085196739429747</v>
+        <v>1.065794090811429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054927828496318</v>
+        <v>1.064306301746325</v>
       </c>
       <c r="J6">
-        <v>1.075916523734888</v>
+        <v>1.068938642841979</v>
       </c>
       <c r="K6">
-        <v>1.076710523899388</v>
+        <v>1.071676183304892</v>
       </c>
       <c r="L6">
-        <v>1.076087923702388</v>
+        <v>1.060605792745523</v>
       </c>
       <c r="M6">
-        <v>1.087504871268857</v>
+        <v>1.074917383338702</v>
       </c>
       <c r="N6">
-        <v>1.077444448607941</v>
+        <v>1.070456658323791</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071266651092375</v>
+        <v>1.04940650965391</v>
       </c>
       <c r="D7">
-        <v>1.074058515548329</v>
+        <v>1.061039977600077</v>
       </c>
       <c r="E7">
-        <v>1.07339362082053</v>
+        <v>1.049751244685874</v>
       </c>
       <c r="F7">
-        <v>1.084823724251382</v>
+        <v>1.064129999215002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054806354291811</v>
+        <v>1.063635634953003</v>
       </c>
       <c r="J7">
-        <v>1.075633586047658</v>
+        <v>1.06761993779312</v>
       </c>
       <c r="K7">
-        <v>1.076449232748561</v>
+        <v>1.070450786300164</v>
       </c>
       <c r="L7">
-        <v>1.075785894549145</v>
+        <v>1.059281311706497</v>
       </c>
       <c r="M7">
-        <v>1.087189524501438</v>
+        <v>1.073508702238451</v>
       </c>
       <c r="N7">
-        <v>1.077161109116743</v>
+        <v>1.069136080562505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.069629459574768</v>
+        <v>1.041490777411672</v>
       </c>
       <c r="D8">
-        <v>1.072722499644674</v>
+        <v>1.054704695967049</v>
       </c>
       <c r="E8">
-        <v>1.071888277499122</v>
+        <v>1.04298670480005</v>
       </c>
       <c r="F8">
-        <v>1.083265059254316</v>
+        <v>1.057016951653106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054295789021958</v>
+        <v>1.060741307478196</v>
       </c>
       <c r="J8">
-        <v>1.074449096058563</v>
+        <v>1.061960254045694</v>
       </c>
       <c r="K8">
-        <v>1.075355195901342</v>
+        <v>1.06519133999087</v>
       </c>
       <c r="L8">
-        <v>1.074523137496834</v>
+        <v>1.053614251790357</v>
       </c>
       <c r="M8">
-        <v>1.085870720675424</v>
+        <v>1.067476249046912</v>
       </c>
       <c r="N8">
-        <v>1.075974937016</v>
+        <v>1.063468359414983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066741597065904</v>
+        <v>1.026735223513879</v>
       </c>
       <c r="D9">
-        <v>1.070365788146631</v>
+        <v>1.042924416357793</v>
       </c>
       <c r="E9">
-        <v>1.069238878889151</v>
+        <v>1.03046986652695</v>
       </c>
       <c r="F9">
-        <v>1.08052020514547</v>
+        <v>1.043829951192671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053385424327093</v>
+        <v>1.055269731020805</v>
       </c>
       <c r="J9">
-        <v>1.072354782498356</v>
+        <v>1.051377973672892</v>
       </c>
       <c r="K9">
-        <v>1.073420190263292</v>
+        <v>1.055357451787515</v>
       </c>
       <c r="L9">
-        <v>1.072296707920741</v>
+        <v>1.043087204458542</v>
       </c>
       <c r="M9">
-        <v>1.083544079035063</v>
+        <v>1.056249804035653</v>
       </c>
       <c r="N9">
-        <v>1.073877649290316</v>
+        <v>1.052871050990246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064814247612831</v>
+        <v>1.016276035345764</v>
       </c>
       <c r="D10">
-        <v>1.068792905176694</v>
+        <v>1.03459925700246</v>
       </c>
       <c r="E10">
-        <v>1.0674747007018</v>
+        <v>1.021667055680826</v>
       </c>
       <c r="F10">
-        <v>1.078691369281623</v>
+        <v>1.034537231903784</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052771290599237</v>
+        <v>1.051342674285043</v>
       </c>
       <c r="J10">
-        <v>1.070953717330613</v>
+        <v>1.043858449597303</v>
       </c>
       <c r="K10">
-        <v>1.072125289593025</v>
+        <v>1.04837070139651</v>
       </c>
       <c r="L10">
-        <v>1.070811488676055</v>
+        <v>1.035655822635839</v>
       </c>
       <c r="M10">
-        <v>1.081991064184378</v>
+        <v>1.048309701925451</v>
       </c>
       <c r="N10">
-        <v>1.07247459444933</v>
+        <v>1.045340848327969</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063979151514958</v>
+        <v>1.011579496767591</v>
       </c>
       <c r="D11">
-        <v>1.06811139903261</v>
+        <v>1.030868214766015</v>
       </c>
       <c r="E11">
-        <v>1.066711270864525</v>
+        <v>1.017732404761262</v>
       </c>
       <c r="F11">
-        <v>1.077899696537591</v>
+        <v>1.030378826672674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052503640960904</v>
+        <v>1.049568522144311</v>
       </c>
       <c r="J11">
-        <v>1.070345868431243</v>
+        <v>1.040478365138216</v>
       </c>
       <c r="K11">
-        <v>1.071563404622747</v>
+        <v>1.045230570873507</v>
       </c>
       <c r="L11">
-        <v>1.070168135813366</v>
+        <v>1.032327486505345</v>
       </c>
       <c r="M11">
-        <v>1.081318118073078</v>
+        <v>1.044749715405655</v>
       </c>
       <c r="N11">
-        <v>1.071865882334803</v>
+        <v>1.041955963761248</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063668875450595</v>
+        <v>1.009807899969135</v>
       </c>
       <c r="D12">
-        <v>1.067858189997397</v>
+        <v>1.029462024633085</v>
       </c>
       <c r="E12">
-        <v>1.06642776828423</v>
+        <v>1.016251075512766</v>
       </c>
       <c r="F12">
-        <v>1.077605666078925</v>
+        <v>1.028812505873786</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052403963816418</v>
+        <v>1.048897742457215</v>
       </c>
       <c r="J12">
-        <v>1.07011990738589</v>
+        <v>1.039202894994533</v>
       </c>
       <c r="K12">
-        <v>1.071354516003255</v>
+        <v>1.044045739094449</v>
       </c>
       <c r="L12">
-        <v>1.069929127980798</v>
+        <v>1.031073415706364</v>
       </c>
       <c r="M12">
-        <v>1.081068082094609</v>
+        <v>1.043407766500321</v>
       </c>
       <c r="N12">
-        <v>1.071639600398846</v>
+        <v>1.040678682303664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06373543457614</v>
+        <v>1.010189172243372</v>
       </c>
       <c r="D13">
-        <v>1.067912507266453</v>
+        <v>1.029764599698446</v>
       </c>
       <c r="E13">
-        <v>1.066488577440424</v>
+        <v>1.016569745850688</v>
       </c>
       <c r="F13">
-        <v>1.077668735189061</v>
+        <v>1.029149494526128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052425356688954</v>
+        <v>1.049042172173085</v>
       </c>
       <c r="J13">
-        <v>1.070168384922553</v>
+        <v>1.039477413259549</v>
       </c>
       <c r="K13">
-        <v>1.071399331470395</v>
+        <v>1.044300744821987</v>
       </c>
       <c r="L13">
-        <v>1.069980397711444</v>
+        <v>1.031343242813888</v>
       </c>
       <c r="M13">
-        <v>1.081121719028262</v>
+        <v>1.043696528841648</v>
       </c>
       <c r="N13">
-        <v>1.071688146779173</v>
+        <v>1.040953590416104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063953505732962</v>
+        <v>1.011433620425011</v>
       </c>
       <c r="D14">
-        <v>1.06809047007707</v>
+        <v>1.030752401376836</v>
       </c>
       <c r="E14">
-        <v>1.06668783504877</v>
+        <v>1.017610370299799</v>
       </c>
       <c r="F14">
-        <v>1.077875391244786</v>
+        <v>1.030249805941263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052495406929201</v>
+        <v>1.04951331993624</v>
       </c>
       <c r="J14">
-        <v>1.070327194080978</v>
+        <v>1.040373349540692</v>
       </c>
       <c r="K14">
-        <v>1.071546141495653</v>
+        <v>1.045133015968357</v>
       </c>
       <c r="L14">
-        <v>1.07014838013336</v>
+        <v>1.03222419450904</v>
       </c>
       <c r="M14">
-        <v>1.081297451536765</v>
+        <v>1.044639197533192</v>
       </c>
       <c r="N14">
-        <v>1.071847181464818</v>
+        <v>1.041850799029531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064087855326914</v>
+        <v>1.012196715617733</v>
       </c>
       <c r="D15">
-        <v>1.068200109871449</v>
+        <v>1.031358283882901</v>
       </c>
       <c r="E15">
-        <v>1.066810613369251</v>
+        <v>1.018248863867402</v>
       </c>
       <c r="F15">
-        <v>1.078002723054108</v>
+        <v>1.030924821368843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052538532694969</v>
+        <v>1.049802026282745</v>
       </c>
       <c r="J15">
-        <v>1.070425017883403</v>
+        <v>1.040922679542884</v>
       </c>
       <c r="K15">
-        <v>1.071636572161734</v>
+        <v>1.045643323437748</v>
       </c>
       <c r="L15">
-        <v>1.070251874578846</v>
+        <v>1.0327645849578</v>
       </c>
       <c r="M15">
-        <v>1.081405716302555</v>
+        <v>1.04521736704708</v>
       </c>
       <c r="N15">
-        <v>1.071945144188263</v>
+        <v>1.042400909143335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064869658543329</v>
+        <v>1.016584038628834</v>
       </c>
       <c r="D16">
-        <v>1.068838125143162</v>
+        <v>1.034844102456224</v>
       </c>
       <c r="E16">
-        <v>1.067525376820167</v>
+        <v>1.021925482282844</v>
       </c>
       <c r="F16">
-        <v>1.078743914587152</v>
+        <v>1.034810252445608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052789017190397</v>
+        <v>1.051458807166986</v>
       </c>
       <c r="J16">
-        <v>1.070994033273816</v>
+        <v>1.044080051114267</v>
       </c>
       <c r="K16">
-        <v>1.072162554958907</v>
+        <v>1.048576582814317</v>
       </c>
       <c r="L16">
-        <v>1.070854180644295</v>
+        <v>1.035874287292576</v>
       </c>
       <c r="M16">
-        <v>1.082035715138577</v>
+        <v>1.048543290548257</v>
       </c>
       <c r="N16">
-        <v>1.072514967645798</v>
+        <v>1.045562764544505</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065359916139815</v>
+        <v>1.019289919986802</v>
       </c>
       <c r="D17">
-        <v>1.069238217031639</v>
+        <v>1.036995961750047</v>
       </c>
       <c r="E17">
-        <v>1.067973854077841</v>
+        <v>1.024197890689378</v>
       </c>
       <c r="F17">
-        <v>1.079208903494984</v>
+        <v>1.037210442543987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052945676856275</v>
+        <v>1.052477849912739</v>
       </c>
       <c r="J17">
-        <v>1.071350644787039</v>
+        <v>1.046026478228545</v>
       </c>
       <c r="K17">
-        <v>1.072492171852921</v>
+        <v>1.05038498859753</v>
       </c>
       <c r="L17">
-        <v>1.071231925241523</v>
+        <v>1.0377945409973</v>
       </c>
       <c r="M17">
-        <v>1.082430766974451</v>
+        <v>1.050596045819646</v>
       </c>
       <c r="N17">
-        <v>1.072872085588273</v>
+        <v>1.047511955808543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065645823093779</v>
+        <v>1.020852178308555</v>
       </c>
       <c r="D18">
-        <v>1.069471541763467</v>
+        <v>1.038239027259632</v>
       </c>
       <c r="E18">
-        <v>1.068235488818398</v>
+        <v>1.025511580306268</v>
       </c>
       <c r="F18">
-        <v>1.079480145514336</v>
+        <v>1.038597553559045</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053036887346255</v>
+        <v>1.053065179488178</v>
       </c>
       <c r="J18">
-        <v>1.071558536673725</v>
+        <v>1.047149919527654</v>
       </c>
       <c r="K18">
-        <v>1.072684317637351</v>
+        <v>1.051428809220635</v>
       </c>
       <c r="L18">
-        <v>1.071452233912052</v>
+        <v>1.038904016193553</v>
       </c>
       <c r="M18">
-        <v>1.082661147784605</v>
+        <v>1.051781718852035</v>
       </c>
       <c r="N18">
-        <v>1.073080272705284</v>
+        <v>1.048636992523158</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065743301242422</v>
+        <v>1.021382202828573</v>
       </c>
       <c r="D19">
-        <v>1.069551092374395</v>
+        <v>1.038660870978742</v>
       </c>
       <c r="E19">
-        <v>1.068324707273622</v>
+        <v>1.025957557413114</v>
       </c>
       <c r="F19">
-        <v>1.079572635794336</v>
+        <v>1.039068380756851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05306795956129</v>
+        <v>1.053264266411528</v>
       </c>
       <c r="J19">
-        <v>1.071629403225866</v>
+        <v>1.047531007344528</v>
       </c>
       <c r="K19">
-        <v>1.072749815065808</v>
+        <v>1.051782895150025</v>
       </c>
       <c r="L19">
-        <v>1.071527349554866</v>
+        <v>1.039280558592849</v>
       </c>
       <c r="M19">
-        <v>1.082739693893265</v>
+        <v>1.052184061757345</v>
       </c>
       <c r="N19">
-        <v>1.073151239896058</v>
+        <v>1.049018621528444</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065307321541102</v>
+        <v>1.01900127643523</v>
       </c>
       <c r="D20">
-        <v>1.069195295325267</v>
+        <v>1.036766346240284</v>
       </c>
       <c r="E20">
-        <v>1.067925732013513</v>
+        <v>1.023955309310926</v>
       </c>
       <c r="F20">
-        <v>1.079159012339129</v>
+        <v>1.036954267285517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052928885979611</v>
+        <v>1.052369251491628</v>
       </c>
       <c r="J20">
-        <v>1.071312395508623</v>
+        <v>1.045818882576252</v>
       </c>
       <c r="K20">
-        <v>1.0724568189014</v>
+        <v>1.050192108994096</v>
       </c>
       <c r="L20">
-        <v>1.071191399248711</v>
+        <v>1.037589618057002</v>
       </c>
       <c r="M20">
-        <v>1.082388386447128</v>
+        <v>1.050377020119232</v>
       </c>
       <c r="N20">
-        <v>1.072833781991495</v>
+        <v>1.047304065346613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063889291559977</v>
+        <v>1.011067925635767</v>
       </c>
       <c r="D21">
-        <v>1.068038066335805</v>
+        <v>1.030462090744374</v>
       </c>
       <c r="E21">
-        <v>1.066629156749853</v>
+        <v>1.017304491077023</v>
       </c>
       <c r="F21">
-        <v>1.077814535316905</v>
+        <v>1.029926403413984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052474786068001</v>
+        <v>1.049374909884606</v>
       </c>
       <c r="J21">
-        <v>1.070280433695448</v>
+        <v>1.040110080734013</v>
       </c>
       <c r="K21">
-        <v>1.071502914570765</v>
+        <v>1.044888452300121</v>
       </c>
       <c r="L21">
-        <v>1.070098914555442</v>
+        <v>1.031965276991303</v>
       </c>
       <c r="M21">
-        <v>1.08124570474437</v>
+        <v>1.044362157558815</v>
       </c>
       <c r="N21">
-        <v>1.071800354674178</v>
+        <v>1.041587156350949</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062997231285331</v>
+        <v>1.005922070689062</v>
       </c>
       <c r="D22">
-        <v>1.067310080318416</v>
+        <v>1.026380048233339</v>
       </c>
       <c r="E22">
-        <v>1.065814348349443</v>
+        <v>1.013007392561068</v>
       </c>
       <c r="F22">
-        <v>1.076969393776884</v>
+        <v>1.025381291709611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052187769832376</v>
+        <v>1.047423687655394</v>
       </c>
       <c r="J22">
-        <v>1.069630562365976</v>
+        <v>1.036404520807175</v>
       </c>
       <c r="K22">
-        <v>1.070902117606251</v>
+        <v>1.041446420222683</v>
       </c>
       <c r="L22">
-        <v>1.069411805893983</v>
+        <v>1.028325500687905</v>
       </c>
       <c r="M22">
-        <v>1.080526827428072</v>
+        <v>1.040466169102627</v>
       </c>
       <c r="N22">
-        <v>1.071149560452876</v>
+        <v>1.037876334103981</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063470176594487</v>
+        <v>1.008665635680043</v>
       </c>
       <c r="D23">
-        <v>1.067696037000993</v>
+        <v>1.028555718469784</v>
       </c>
       <c r="E23">
-        <v>1.066246256293948</v>
+        <v>1.015296795659743</v>
       </c>
       <c r="F23">
-        <v>1.07741740240761</v>
+        <v>1.027803257596596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052340065579564</v>
+        <v>1.048464820676381</v>
       </c>
       <c r="J23">
-        <v>1.06997517027275</v>
+        <v>1.038380397284102</v>
       </c>
       <c r="K23">
-        <v>1.071220710500067</v>
+        <v>1.043281719128681</v>
       </c>
       <c r="L23">
-        <v>1.069776076536865</v>
+        <v>1.030265251961515</v>
       </c>
       <c r="M23">
-        <v>1.08090795901477</v>
+        <v>1.042542800312122</v>
       </c>
       <c r="N23">
-        <v>1.071494657742405</v>
+        <v>1.039855016552142</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065331086937029</v>
+        <v>1.019131751448164</v>
       </c>
       <c r="D24">
-        <v>1.069214689926987</v>
+        <v>1.036870136828843</v>
       </c>
       <c r="E24">
-        <v>1.067947476162379</v>
+        <v>1.024064957660574</v>
       </c>
       <c r="F24">
-        <v>1.079181555937476</v>
+        <v>1.037070061549336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052936473568325</v>
+        <v>1.052418344211315</v>
       </c>
       <c r="J24">
-        <v>1.071329679062077</v>
+        <v>1.045912722721066</v>
       </c>
       <c r="K24">
-        <v>1.072472793731263</v>
+        <v>1.050279296864216</v>
       </c>
       <c r="L24">
-        <v>1.07120971127271</v>
+        <v>1.037682246510025</v>
       </c>
       <c r="M24">
-        <v>1.082407536526126</v>
+        <v>1.050476024355757</v>
       </c>
       <c r="N24">
-        <v>1.072851090089577</v>
+        <v>1.047398038755196</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06748853974025</v>
+        <v>1.030653282854041</v>
       </c>
       <c r="D25">
-        <v>1.07097535614834</v>
+        <v>1.046048552082668</v>
       </c>
       <c r="E25">
-        <v>1.069923438863216</v>
+        <v>1.033782069207333</v>
       </c>
       <c r="F25">
-        <v>1.081229621459584</v>
+        <v>1.047322577903863</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053622045681393</v>
+        <v>1.056731170538362</v>
       </c>
       <c r="J25">
-        <v>1.072897062169252</v>
+        <v>1.054191316413714</v>
       </c>
       <c r="K25">
-        <v>1.073921293261803</v>
+        <v>1.057971734925411</v>
       </c>
       <c r="L25">
-        <v>1.07287245295634</v>
+        <v>1.045877657287234</v>
       </c>
       <c r="M25">
-        <v>1.084145904449916</v>
+        <v>1.059228146212906</v>
       </c>
       <c r="N25">
-        <v>1.074420699060546</v>
+        <v>1.055688389000456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039400863618775</v>
+        <v>1.007586323814812</v>
       </c>
       <c r="D2">
-        <v>1.053033813454701</v>
+        <v>1.02941074000005</v>
       </c>
       <c r="E2">
-        <v>1.041206662425674</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.055143568329137</v>
+        <v>1.035727012744173</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05997198613209</v>
+        <v>1.048029422899688</v>
       </c>
       <c r="J2">
-        <v>1.060463740293309</v>
+        <v>1.029542472899662</v>
       </c>
       <c r="K2">
-        <v>1.063800626887719</v>
+        <v>1.040474995748251</v>
       </c>
       <c r="L2">
-        <v>1.052120289042473</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.065884622863073</v>
+        <v>1.046710079141296</v>
       </c>
       <c r="N2">
-        <v>1.061969720441417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013414875681664</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045540267627446</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039689607754089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04552249877285</v>
+        <v>1.011789383370181</v>
       </c>
       <c r="D3">
-        <v>1.05793015197643</v>
+        <v>1.032132338834465</v>
       </c>
       <c r="E3">
-        <v>1.046427590608858</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.060636355861627</v>
+        <v>1.038491797683817</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062219494998926</v>
+        <v>1.048784110471302</v>
       </c>
       <c r="J3">
-        <v>1.06484467244718</v>
+        <v>1.031963737214376</v>
       </c>
       <c r="K3">
-        <v>1.067871813934291</v>
+        <v>1.042369947504825</v>
       </c>
       <c r="L3">
-        <v>1.056498982951025</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.07054799897102</v>
+        <v>1.048654763810708</v>
       </c>
       <c r="N3">
-        <v>1.066356874021446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014258137203552</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047079342881503</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041026839848649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049385026159142</v>
+        <v>1.014458357627855</v>
       </c>
       <c r="D4">
-        <v>1.06102276963916</v>
+        <v>1.0338643973067</v>
       </c>
       <c r="E4">
-        <v>1.049732836425726</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.064110656202204</v>
+        <v>1.040253983927547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06362782432219</v>
+        <v>1.049253910913875</v>
       </c>
       <c r="J4">
-        <v>1.067604597103421</v>
+        <v>1.033499311224972</v>
       </c>
       <c r="K4">
-        <v>1.07043653091545</v>
+        <v>1.043570591882766</v>
       </c>
       <c r="L4">
-        <v>1.059265913147382</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.073492322026917</v>
+        <v>1.04988969090491</v>
       </c>
       <c r="N4">
-        <v>1.069120718087267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014792671162795</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048056695415582</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04187668931341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050986302232836</v>
+        <v>1.015573610093085</v>
       </c>
       <c r="D5">
-        <v>1.06230556838381</v>
+        <v>1.034591131539828</v>
       </c>
       <c r="E5">
-        <v>1.051105647834824</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.065552968751202</v>
+        <v>1.040992533485434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064209282917098</v>
+        <v>1.04944970857591</v>
       </c>
       <c r="J5">
-        <v>1.068747697514012</v>
+        <v>1.034142449795984</v>
       </c>
       <c r="K5">
-        <v>1.071498750552123</v>
+        <v>1.044074658049813</v>
       </c>
       <c r="L5">
-        <v>1.060413912279036</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.074713333563435</v>
+        <v>1.050407316454214</v>
       </c>
       <c r="N5">
-        <v>1.070265441831556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01501715694071</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048466356982475</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042240254063612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051253872139615</v>
+        <v>1.015766219272381</v>
       </c>
       <c r="D6">
-        <v>1.062519960747301</v>
+        <v>1.034719253585003</v>
       </c>
       <c r="E6">
-        <v>1.051335190375877</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.065794090811429</v>
+        <v>1.041121009703575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064306301746325</v>
+        <v>1.049485571852854</v>
       </c>
       <c r="J6">
-        <v>1.068938642841979</v>
+        <v>1.034255904118181</v>
       </c>
       <c r="K6">
-        <v>1.071676183304892</v>
+        <v>1.044165369159437</v>
       </c>
       <c r="L6">
-        <v>1.060605792745523</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.074917383338702</v>
+        <v>1.050498692122269</v>
       </c>
       <c r="N6">
-        <v>1.070456658323791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015057576892493</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048538673905854</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042313111818732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04940650965391</v>
+        <v>1.014489580811162</v>
       </c>
       <c r="D7">
-        <v>1.061039977600077</v>
+        <v>1.033891614458514</v>
       </c>
       <c r="E7">
-        <v>1.049751244685874</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.064129999215002</v>
+        <v>1.040276900482724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063635634953003</v>
+        <v>1.049265290879149</v>
       </c>
       <c r="J7">
-        <v>1.06761993779312</v>
+        <v>1.033523808234262</v>
       </c>
       <c r="K7">
-        <v>1.070450786300164</v>
+        <v>1.043594636405186</v>
       </c>
       <c r="L7">
-        <v>1.059281311706497</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.073508702238451</v>
+        <v>1.049909509901148</v>
       </c>
       <c r="N7">
-        <v>1.069136080562505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014803469580641</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048072380659909</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041913744791632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041490777411672</v>
+        <v>1.009038104317257</v>
       </c>
       <c r="D8">
-        <v>1.054704695967049</v>
+        <v>1.030358588516713</v>
       </c>
       <c r="E8">
-        <v>1.04298670480005</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.057016951653106</v>
+        <v>1.036683456167958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060741307478196</v>
+        <v>1.048299399116567</v>
       </c>
       <c r="J8">
-        <v>1.061960254045694</v>
+        <v>1.030387339854417</v>
       </c>
       <c r="K8">
-        <v>1.06519133999087</v>
+        <v>1.041142455216772</v>
       </c>
       <c r="L8">
-        <v>1.053614251790357</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.067476249046912</v>
+        <v>1.047388436507261</v>
       </c>
       <c r="N8">
-        <v>1.063468359414983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013712144427541</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046077138083954</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040184419618462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026735223513879</v>
+        <v>0.998998269909491</v>
       </c>
       <c r="D9">
-        <v>1.042924416357793</v>
+        <v>1.02387368916314</v>
       </c>
       <c r="E9">
-        <v>1.03046986652695</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.043829951192671</v>
+        <v>1.030116421656035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055269731020805</v>
+        <v>1.04643794081937</v>
       </c>
       <c r="J9">
-        <v>1.051377973672892</v>
+        <v>1.02458645150655</v>
       </c>
       <c r="K9">
-        <v>1.055357451787515</v>
+        <v>1.036590953233666</v>
       </c>
       <c r="L9">
-        <v>1.043087204458542</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.056249804035653</v>
+        <v>1.042739072648172</v>
       </c>
       <c r="N9">
-        <v>1.052871050990246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011687976846714</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042397497259648</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036963036227136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016276035345764</v>
+        <v>0.9920889808291474</v>
       </c>
       <c r="D10">
-        <v>1.03459925700246</v>
+        <v>1.019463855391595</v>
       </c>
       <c r="E10">
-        <v>1.021667055680826</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.034537231903784</v>
+        <v>1.025711630679828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051342674285043</v>
+        <v>1.045139372526554</v>
       </c>
       <c r="J10">
-        <v>1.043858449597303</v>
+        <v>1.020620026807871</v>
       </c>
       <c r="K10">
-        <v>1.04837070139651</v>
+        <v>1.033490357115761</v>
       </c>
       <c r="L10">
-        <v>1.035655822635839</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.048309701925451</v>
+        <v>1.039631669625793</v>
       </c>
       <c r="N10">
-        <v>1.045340848327969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01031465827909</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03998954261666</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03478753225646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011579496767591</v>
+        <v>0.9896875150992057</v>
       </c>
       <c r="D11">
-        <v>1.030868214766015</v>
+        <v>1.018147484274128</v>
       </c>
       <c r="E11">
-        <v>1.017732404761262</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.030378826672674</v>
+        <v>1.024779175839875</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049568522144311</v>
+        <v>1.044901259532812</v>
       </c>
       <c r="J11">
-        <v>1.040478365138216</v>
+        <v>1.019495688724313</v>
       </c>
       <c r="K11">
-        <v>1.045230570873507</v>
+        <v>1.032735092697111</v>
       </c>
       <c r="L11">
-        <v>1.032327486505345</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.044749715405655</v>
+        <v>1.039248448567747</v>
       </c>
       <c r="N11">
-        <v>1.041955963761248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010020348467399</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04012164923217</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034286399523956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009807899969135</v>
+        <v>0.9890185073921177</v>
       </c>
       <c r="D12">
-        <v>1.029462024633085</v>
+        <v>1.017873202740161</v>
       </c>
       <c r="E12">
-        <v>1.016251075512766</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.028812505873786</v>
+        <v>1.02478844471195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048897742457215</v>
+        <v>1.044932146055115</v>
       </c>
       <c r="J12">
-        <v>1.039202894994533</v>
+        <v>1.019295006448943</v>
       </c>
       <c r="K12">
-        <v>1.044045739094449</v>
+        <v>1.032665808550983</v>
       </c>
       <c r="L12">
-        <v>1.031073415706364</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.043407766500321</v>
+        <v>1.039455662935118</v>
       </c>
       <c r="N12">
-        <v>1.040678682303664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010025434089405</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040611323205603</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034237413310767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010189172243372</v>
+        <v>0.98966374457879</v>
       </c>
       <c r="D13">
-        <v>1.029764599698446</v>
+        <v>1.018408033918166</v>
       </c>
       <c r="E13">
-        <v>1.016569745850688</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.029149494526128</v>
+        <v>1.025552889778874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049042172173085</v>
+        <v>1.045189412772804</v>
       </c>
       <c r="J13">
-        <v>1.039477413259549</v>
+        <v>1.019817840614871</v>
       </c>
       <c r="K13">
-        <v>1.044300744821987</v>
+        <v>1.033147983506132</v>
       </c>
       <c r="L13">
-        <v>1.031343242813888</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.043696528841648</v>
+        <v>1.040163934262199</v>
       </c>
       <c r="N13">
-        <v>1.040953590416104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010273140587548</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041447493629091</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034575832890034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011433620425011</v>
+        <v>0.9907107094623618</v>
       </c>
       <c r="D14">
-        <v>1.030752401376836</v>
+        <v>1.019149411165131</v>
       </c>
       <c r="E14">
-        <v>1.017610370299799</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.030249805941263</v>
+        <v>1.026429480418648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04951331993624</v>
+        <v>1.045471623803432</v>
       </c>
       <c r="J14">
-        <v>1.040373349540692</v>
+        <v>1.02051132030364</v>
       </c>
       <c r="K14">
-        <v>1.045133015968357</v>
+        <v>1.033735520570246</v>
       </c>
       <c r="L14">
-        <v>1.03222419450904</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.044639197533192</v>
+        <v>1.040885952023966</v>
       </c>
       <c r="N14">
-        <v>1.041850799029531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010556335313973</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042191243949537</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034992666715982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012196715617733</v>
+        <v>0.9912607179879058</v>
       </c>
       <c r="D15">
-        <v>1.031358283882901</v>
+        <v>1.019517085603678</v>
       </c>
       <c r="E15">
-        <v>1.018248863867402</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.030924821368843</v>
+        <v>1.026824745688153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049802026282745</v>
+        <v>1.045595615611737</v>
       </c>
       <c r="J15">
-        <v>1.040922679542884</v>
+        <v>1.020848315595095</v>
       </c>
       <c r="K15">
-        <v>1.045643323437748</v>
+        <v>1.034010153779389</v>
       </c>
       <c r="L15">
-        <v>1.0327645849578</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.04521736704708</v>
+        <v>1.04118869707642</v>
       </c>
       <c r="N15">
-        <v>1.042400909143335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010682695644221</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042468004783149</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035192713943538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016584038628834</v>
+        <v>0.9940717064815987</v>
       </c>
       <c r="D16">
-        <v>1.034844102456224</v>
+        <v>1.021292478707919</v>
       </c>
       <c r="E16">
-        <v>1.021925482282844</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.034810252445608</v>
+        <v>1.028578729911677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051458807166986</v>
+        <v>1.04611561081302</v>
       </c>
       <c r="J16">
-        <v>1.044080051114267</v>
+        <v>1.02244497759892</v>
       </c>
       <c r="K16">
-        <v>1.048576582814317</v>
+        <v>1.03525206512362</v>
       </c>
       <c r="L16">
-        <v>1.035874287292576</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.048543290548257</v>
+        <v>1.042415250459297</v>
       </c>
       <c r="N16">
-        <v>1.045562764544505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011222592362859</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043398828264992</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036073954100726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019289919986802</v>
+        <v>0.995680929617868</v>
       </c>
       <c r="D17">
-        <v>1.036995961750047</v>
+        <v>1.022267308857379</v>
       </c>
       <c r="E17">
-        <v>1.024197890689378</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.037210442543987</v>
+        <v>1.029460985262755</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052477849912739</v>
+        <v>1.046364231767194</v>
       </c>
       <c r="J17">
-        <v>1.046026478228545</v>
+        <v>1.023306101136702</v>
       </c>
       <c r="K17">
-        <v>1.05038498859753</v>
+        <v>1.035895859899805</v>
       </c>
       <c r="L17">
-        <v>1.0377945409973</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.050596045819646</v>
+        <v>1.042971449435726</v>
       </c>
       <c r="N17">
-        <v>1.047511955808543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011488318022549</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043709696619076</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036531726836589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020852178308555</v>
+        <v>0.9963848647976357</v>
       </c>
       <c r="D18">
-        <v>1.038239027259632</v>
+        <v>1.022613128719672</v>
       </c>
       <c r="E18">
-        <v>1.025511580306268</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.038597553559045</v>
+        <v>1.029622289801935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053065179488178</v>
+        <v>1.046386533300922</v>
       </c>
       <c r="J18">
-        <v>1.047149919527654</v>
+        <v>1.023585146736759</v>
       </c>
       <c r="K18">
-        <v>1.051428809220635</v>
+        <v>1.036052621474865</v>
       </c>
       <c r="L18">
-        <v>1.038904016193553</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.051781718852035</v>
+        <v>1.042948570181835</v>
       </c>
       <c r="N18">
-        <v>1.048636992523158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011529115859769</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04345447819253</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03663093066588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021382202828573</v>
+        <v>0.9962886377845128</v>
       </c>
       <c r="D19">
-        <v>1.038660870978742</v>
+        <v>1.02241117758495</v>
       </c>
       <c r="E19">
-        <v>1.025957557413114</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.039068380756851</v>
+        <v>1.029141167972355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053264266411528</v>
+        <v>1.04621696204786</v>
       </c>
       <c r="J19">
-        <v>1.047531007344528</v>
+        <v>1.023357140915455</v>
       </c>
       <c r="K19">
-        <v>1.051782895150025</v>
+        <v>1.035791430457184</v>
       </c>
       <c r="L19">
-        <v>1.039280558592849</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.052184061757345</v>
+        <v>1.042413204670524</v>
       </c>
       <c r="N19">
-        <v>1.049018621528444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011380782192174</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042706486058035</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036452653992639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01900127643523</v>
+        <v>0.9939270121078616</v>
       </c>
       <c r="D20">
-        <v>1.036766346240284</v>
+        <v>1.02065395146577</v>
       </c>
       <c r="E20">
-        <v>1.023955309310926</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.036954267285517</v>
+        <v>1.026890521690826</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052369251491628</v>
+        <v>1.045504442138119</v>
       </c>
       <c r="J20">
-        <v>1.045818882576252</v>
+        <v>1.021694061314492</v>
       </c>
       <c r="K20">
-        <v>1.050192108994096</v>
+        <v>1.034343094661667</v>
       </c>
       <c r="L20">
-        <v>1.037589618057002</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.050377020119232</v>
+        <v>1.040476458313277</v>
       </c>
       <c r="N20">
-        <v>1.047304065346613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010693946993775</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04064757275517</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035432552219347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011067925635767</v>
+        <v>0.9886007735690513</v>
       </c>
       <c r="D21">
-        <v>1.030462090744374</v>
+        <v>1.017221497313053</v>
       </c>
       <c r="E21">
-        <v>1.017304491077023</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.029926403413984</v>
+        <v>1.023394542847794</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049374909884606</v>
+        <v>1.044443143563988</v>
       </c>
       <c r="J21">
-        <v>1.040110080734013</v>
+        <v>1.018582945932916</v>
       </c>
       <c r="K21">
-        <v>1.044888452300121</v>
+        <v>1.031883786931253</v>
       </c>
       <c r="L21">
-        <v>1.031965276991303</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044362157558815</v>
+        <v>1.03794585160801</v>
       </c>
       <c r="N21">
-        <v>1.041587156350949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009598548365643</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038603984174914</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033696965302339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005922070689062</v>
+        <v>0.9852013222499494</v>
       </c>
       <c r="D22">
-        <v>1.026380048233339</v>
+        <v>1.01504296746808</v>
       </c>
       <c r="E22">
-        <v>1.013007392561068</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.025381291709611</v>
+        <v>1.021207790797569</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047423687655394</v>
+        <v>1.043764129712891</v>
       </c>
       <c r="J22">
-        <v>1.036404520807175</v>
+        <v>1.016605071565039</v>
       </c>
       <c r="K22">
-        <v>1.041446420222683</v>
+        <v>1.030322196665291</v>
       </c>
       <c r="L22">
-        <v>1.028325500687905</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.040466169102627</v>
+        <v>1.036370508067505</v>
       </c>
       <c r="N22">
-        <v>1.037876334103981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008904457063263</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037357201007957</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03257932595653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008665635680043</v>
+        <v>0.9869943241677545</v>
       </c>
       <c r="D23">
-        <v>1.028555718469784</v>
+        <v>1.016184957279883</v>
       </c>
       <c r="E23">
-        <v>1.015296795659743</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.027803257596596</v>
+        <v>1.022357936591781</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048464820676381</v>
+        <v>1.044117735156373</v>
       </c>
       <c r="J23">
-        <v>1.038380397284102</v>
+        <v>1.017642267573187</v>
       </c>
       <c r="K23">
-        <v>1.043281719128681</v>
+        <v>1.031136914603872</v>
       </c>
       <c r="L23">
-        <v>1.030265251961515</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.042542800312122</v>
+        <v>1.037196252283078</v>
       </c>
       <c r="N23">
-        <v>1.039855016552142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009265890662783</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038010724756457</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033145714479154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019131751448164</v>
+        <v>0.9939259393264598</v>
       </c>
       <c r="D24">
-        <v>1.036870136828843</v>
+        <v>1.020623524045903</v>
       </c>
       <c r="E24">
-        <v>1.024064957660574</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.037070061549336</v>
+        <v>1.026828338917798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052418344211315</v>
+        <v>1.045474894842334</v>
       </c>
       <c r="J24">
-        <v>1.045912722721066</v>
+        <v>1.021659826891592</v>
       </c>
       <c r="K24">
-        <v>1.050279296864216</v>
+        <v>1.034297895056147</v>
       </c>
       <c r="L24">
-        <v>1.037682246510025</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.050476024355757</v>
+        <v>1.040400148423277</v>
       </c>
       <c r="N24">
-        <v>1.047398038755196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010669816699797</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.0405463980463</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035373172638549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030653282854041</v>
+        <v>1.001671681486138</v>
       </c>
       <c r="D25">
-        <v>1.046048552082668</v>
+        <v>1.025607193221043</v>
       </c>
       <c r="E25">
-        <v>1.033782069207333</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.047322577903863</v>
+        <v>1.031861992894108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056731170538362</v>
+        <v>1.046951210163888</v>
       </c>
       <c r="J25">
-        <v>1.054191316413714</v>
+        <v>1.02614291755328</v>
       </c>
       <c r="K25">
-        <v>1.057971734925411</v>
+        <v>1.037820582859508</v>
       </c>
       <c r="L25">
-        <v>1.045877657287234</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059228146212906</v>
+        <v>1.043985037299718</v>
       </c>
       <c r="N25">
-        <v>1.055688389000456</v>
+        <v>1.012235292838028</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04338359148583</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037861028999843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007586323814812</v>
+        <v>1.00704893687825</v>
       </c>
       <c r="D2">
-        <v>1.02941074000005</v>
+        <v>1.028454048047137</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.035727012744173</v>
+        <v>1.035090625095706</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048029422899688</v>
+        <v>1.047659363329583</v>
       </c>
       <c r="J2">
-        <v>1.029542472899662</v>
+        <v>1.029020840295056</v>
       </c>
       <c r="K2">
-        <v>1.040474995748251</v>
+        <v>1.039530709964307</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.046710079141296</v>
+        <v>1.046081815526603</v>
       </c>
       <c r="N2">
-        <v>1.013414875681664</v>
+        <v>1.014673939164547</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045540267627446</v>
+        <v>1.045043042377013</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039689607754089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039030679555605</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022493464831691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011789383370181</v>
+        <v>1.010994312143753</v>
       </c>
       <c r="D3">
-        <v>1.032132338834465</v>
+        <v>1.030919320787742</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.038491797683817</v>
+        <v>1.037663862126526</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048784110471302</v>
+        <v>1.048298954881792</v>
       </c>
       <c r="J3">
-        <v>1.031963737214376</v>
+        <v>1.031189683081939</v>
       </c>
       <c r="K3">
-        <v>1.042369947504825</v>
+        <v>1.041171296517628</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.048654763810708</v>
+        <v>1.047836481863868</v>
       </c>
       <c r="N3">
-        <v>1.014258137203552</v>
+        <v>1.015271205459079</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047079342881503</v>
+        <v>1.046431733141677</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041026839848649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040187775822806</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022838059920274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014458357627855</v>
+        <v>1.01350183113851</v>
       </c>
       <c r="D4">
-        <v>1.0338643973067</v>
+        <v>1.032489991161333</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.040253983927547</v>
+        <v>1.039305668326368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049253910913875</v>
+        <v>1.048696243988317</v>
       </c>
       <c r="J4">
-        <v>1.033499311224972</v>
+        <v>1.032566352942782</v>
       </c>
       <c r="K4">
-        <v>1.043570591882766</v>
+        <v>1.042211487962297</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.04988969090491</v>
+        <v>1.048951769498119</v>
       </c>
       <c r="N4">
-        <v>1.014792671162795</v>
+        <v>1.015650264308503</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048056695415582</v>
+        <v>1.0473144008119</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04187668931341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040924253004648</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023054147742771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015573610093085</v>
+        <v>1.014549957728808</v>
       </c>
       <c r="D5">
-        <v>1.034591131539828</v>
+        <v>1.033149534462153</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.040992533485434</v>
+        <v>1.039994130781362</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04944970857591</v>
+        <v>1.04886180271789</v>
       </c>
       <c r="J5">
-        <v>1.034142449795984</v>
+        <v>1.033143263417878</v>
       </c>
       <c r="K5">
-        <v>1.044074658049813</v>
+        <v>1.042648686192457</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.050407316454214</v>
+        <v>1.049419567204847</v>
       </c>
       <c r="N5">
-        <v>1.01501715694071</v>
+        <v>1.015809593864701</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048466356982475</v>
+        <v>1.047684627782006</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042240254063612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041241247809583</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023144988306288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015766219272381</v>
+        <v>1.014730810093842</v>
       </c>
       <c r="D6">
-        <v>1.034719253585003</v>
+        <v>1.033265978956811</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.041121009703575</v>
+        <v>1.040113880463882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049485571852854</v>
+        <v>1.04889235981045</v>
       </c>
       <c r="J6">
-        <v>1.034255904118181</v>
+        <v>1.033245114092022</v>
       </c>
       <c r="K6">
-        <v>1.044165369159437</v>
+        <v>1.042727774465554</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.050498692122269</v>
+        <v>1.049502260488473</v>
       </c>
       <c r="N6">
-        <v>1.015057576892493</v>
+        <v>1.015838323919936</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048538673905854</v>
+        <v>1.047750073324784</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042313111818732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041306756644903</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023162116318644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014489580811162</v>
+        <v>1.013542781792935</v>
       </c>
       <c r="D7">
-        <v>1.033891614458514</v>
+        <v>1.032523524869132</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.040276900482724</v>
+        <v>1.039334027759619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049265290879149</v>
+        <v>1.048710702589291</v>
       </c>
       <c r="J7">
-        <v>1.033523808234262</v>
+        <v>1.032600327002316</v>
       </c>
       <c r="K7">
-        <v>1.043594636405186</v>
+        <v>1.042241772538039</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049909509901148</v>
+        <v>1.048976967652106</v>
       </c>
       <c r="N7">
-        <v>1.014803469580641</v>
+        <v>1.015687782956432</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048072380659909</v>
+        <v>1.047334343274804</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041913744791632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040967720454383</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023063388719543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009038104317257</v>
+        <v>1.008448101299093</v>
       </c>
       <c r="D8">
-        <v>1.030358588516713</v>
+        <v>1.029339084325435</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.036683456167958</v>
+        <v>1.036002448985755</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048299399116567</v>
+        <v>1.047902201393306</v>
       </c>
       <c r="J8">
-        <v>1.030387339854417</v>
+        <v>1.029814048424475</v>
       </c>
       <c r="K8">
-        <v>1.041142455216772</v>
+        <v>1.04013577987888</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.047388436507261</v>
+        <v>1.04671586550262</v>
       </c>
       <c r="N8">
-        <v>1.013712144427541</v>
+        <v>1.014975313377197</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046077138083954</v>
+        <v>1.045544847112725</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040184419618462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039483642031108</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022626571203479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998998269909491</v>
+        <v>0.9990441825799646</v>
       </c>
       <c r="D9">
-        <v>1.02387368916314</v>
+        <v>1.023479813806034</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.030116421656035</v>
+        <v>1.02990485678907</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04643794081937</v>
+        <v>1.046321790838644</v>
       </c>
       <c r="J9">
-        <v>1.02458645150655</v>
+        <v>1.024630738431768</v>
       </c>
       <c r="K9">
-        <v>1.036590953233666</v>
+        <v>1.036203096708512</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.042739072648172</v>
+        <v>1.042530690291739</v>
       </c>
       <c r="N9">
-        <v>1.011687976846714</v>
+        <v>1.013555981633324</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042397497259648</v>
+        <v>1.042232577010077</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036963036227136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036699533772035</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021785463717932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9920889808291474</v>
+        <v>0.9926346721664542</v>
       </c>
       <c r="D10">
-        <v>1.019463855391595</v>
+        <v>1.019541871813423</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.025711630679828</v>
+        <v>1.025858903761584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045139372526554</v>
+        <v>1.045235620795119</v>
       </c>
       <c r="J10">
-        <v>1.020620026807871</v>
+        <v>1.021143591813948</v>
       </c>
       <c r="K10">
-        <v>1.033490357115761</v>
+        <v>1.033567033730342</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.039631669625793</v>
+        <v>1.039776453343032</v>
       </c>
       <c r="N10">
-        <v>1.01031465827909</v>
+        <v>1.012723304372292</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03998954261666</v>
+        <v>1.040104122177266</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03478753225646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03485416620282</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021221942354385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9896875150992057</v>
+        <v>0.9904361215423285</v>
       </c>
       <c r="D11">
-        <v>1.018147484274128</v>
+        <v>1.018397943099129</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.024779175839875</v>
+        <v>1.025061082656151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044901259532812</v>
+        <v>1.045067639426656</v>
       </c>
       <c r="J11">
-        <v>1.019495688724313</v>
+        <v>1.020212253446774</v>
       </c>
       <c r="K11">
-        <v>1.032735092697111</v>
+        <v>1.032981045952434</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.039248448567747</v>
+        <v>1.03952536905025</v>
       </c>
       <c r="N11">
-        <v>1.010020348467399</v>
+        <v>1.01276661614772</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04012164923217</v>
+        <v>1.040340689981441</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034286399523956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034475923261405</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021161967552303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9890185073921177</v>
+        <v>0.9898096891234514</v>
       </c>
       <c r="D12">
-        <v>1.017873202740161</v>
+        <v>1.018155015438019</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.02478844471195</v>
+        <v>1.025095215281146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044932146055115</v>
+        <v>1.045105324250398</v>
       </c>
       <c r="J12">
-        <v>1.019295006448943</v>
+        <v>1.020051671465458</v>
       </c>
       <c r="K12">
-        <v>1.032665808550983</v>
+        <v>1.032942468061085</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.039455662935118</v>
+        <v>1.03975692203784</v>
       </c>
       <c r="N12">
-        <v>1.010025434089405</v>
+        <v>1.012875197455197</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040611323205603</v>
+        <v>1.040849535173465</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034237413310767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034448647983957</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021199212847032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.98966374457879</v>
+        <v>0.9903549810689273</v>
       </c>
       <c r="D13">
-        <v>1.018408033918166</v>
+        <v>1.018598902349419</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.025552889778874</v>
+        <v>1.02578860431106</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045189412772804</v>
+        <v>1.045314043678967</v>
       </c>
       <c r="J13">
-        <v>1.019817840614871</v>
+        <v>1.020479082889854</v>
       </c>
       <c r="K13">
-        <v>1.033147983506132</v>
+        <v>1.033335377761211</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.040163934262199</v>
+        <v>1.040395435843634</v>
       </c>
       <c r="N13">
-        <v>1.010273140587548</v>
+        <v>1.013010645967031</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041447493629091</v>
+        <v>1.041630501019219</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034575832890034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034723706609999</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021319315422696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9907107094623618</v>
+        <v>0.9912687068775968</v>
       </c>
       <c r="D14">
-        <v>1.019149411165131</v>
+        <v>1.019222587233482</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.026429480418648</v>
+        <v>1.026573164762147</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045471623803432</v>
+        <v>1.045538348139296</v>
       </c>
       <c r="J14">
-        <v>1.02051132030364</v>
+        <v>1.021045464013395</v>
       </c>
       <c r="K14">
-        <v>1.033735520570246</v>
+        <v>1.033807381603963</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.040885952023966</v>
+        <v>1.041027101739215</v>
       </c>
       <c r="N14">
-        <v>1.010556335313973</v>
+        <v>1.013119528415785</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042191243949537</v>
+        <v>1.042302811075942</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034992666715982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035058985585519</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021441585290005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9912607179879058</v>
+        <v>0.9917555477253228</v>
       </c>
       <c r="D15">
-        <v>1.019517085603678</v>
+        <v>1.019535151095968</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.026824745688153</v>
+        <v>1.026925367216771</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045595615611737</v>
+        <v>1.045636423365636</v>
       </c>
       <c r="J15">
-        <v>1.020848315595095</v>
+        <v>1.021322181677832</v>
       </c>
       <c r="K15">
-        <v>1.034010153779389</v>
+        <v>1.034027897115333</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.04118869707642</v>
+        <v>1.041287557369057</v>
       </c>
       <c r="N15">
-        <v>1.010682695644221</v>
+        <v>1.013158560732815</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042468004783149</v>
+        <v>1.042546143583791</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035192713943538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035221335850269</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021493289038605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9940717064815987</v>
+        <v>0.994287942600826</v>
       </c>
       <c r="D16">
-        <v>1.021292478707919</v>
+        <v>1.021067807110674</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.028578729911677</v>
+        <v>1.028490568224234</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04611561081302</v>
+        <v>1.046048013397323</v>
       </c>
       <c r="J16">
-        <v>1.02244497759892</v>
+        <v>1.022652519304471</v>
       </c>
       <c r="K16">
-        <v>1.03525206512362</v>
+        <v>1.035031224316217</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.042415250459297</v>
+        <v>1.042328564404123</v>
       </c>
       <c r="N16">
-        <v>1.011222592362859</v>
+        <v>1.013302316690343</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043398828264992</v>
+        <v>1.04333030998246</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036073954100726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035934183915344</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021699935307325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.995680929617868</v>
+        <v>0.9957680484973134</v>
       </c>
       <c r="D17">
-        <v>1.022267308857379</v>
+        <v>1.021928128187052</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.029460985262755</v>
+        <v>1.029284661999288</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046364231767194</v>
+        <v>1.046248006971134</v>
       </c>
       <c r="J17">
-        <v>1.023306101136702</v>
+        <v>1.023389831403342</v>
       </c>
       <c r="K17">
-        <v>1.035895859899805</v>
+        <v>1.035562299841332</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.042971449435726</v>
+        <v>1.042797995232858</v>
       </c>
       <c r="N17">
-        <v>1.011488318022549</v>
+        <v>1.013386542087904</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043709696619076</v>
+        <v>1.043572581553829</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036531726836589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036312505732722</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021796192595375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9963848647976357</v>
+        <v>0.996443881460342</v>
       </c>
       <c r="D18">
-        <v>1.022613128719672</v>
+        <v>1.022248826963158</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.029622289801935</v>
+        <v>1.02942719458492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046386533300922</v>
+        <v>1.0462639649708</v>
       </c>
       <c r="J18">
-        <v>1.023585146736759</v>
+        <v>1.023641911125463</v>
       </c>
       <c r="K18">
-        <v>1.036052621474865</v>
+        <v>1.03569425847796</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.042948570181835</v>
+        <v>1.042756599405806</v>
       </c>
       <c r="N18">
-        <v>1.011529115859769</v>
+        <v>1.013376802654105</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04345447819253</v>
+        <v>1.043302694333699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03663093066588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036393040122166</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02179291988112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9962886377845128</v>
+        <v>0.9963977556824687</v>
       </c>
       <c r="D19">
-        <v>1.02241117758495</v>
+        <v>1.022093089163834</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.029141167972355</v>
+        <v>1.028982129092865</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04621696204786</v>
+        <v>1.046121613143659</v>
       </c>
       <c r="J19">
-        <v>1.023357140915455</v>
+        <v>1.02346211805251</v>
       </c>
       <c r="K19">
-        <v>1.035791430457184</v>
+        <v>1.035478502094137</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.042413204670524</v>
+        <v>1.042256702155755</v>
       </c>
       <c r="N19">
-        <v>1.011380782192174</v>
+        <v>1.013270192386056</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042706486058035</v>
+        <v>1.042582705342627</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036452653992639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036247512158994</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021705152837017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9939270121078616</v>
+        <v>0.994301909109681</v>
       </c>
       <c r="D20">
-        <v>1.02065395146577</v>
+        <v>1.020579594798732</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.026890521690826</v>
+        <v>1.026919647511006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045504442138119</v>
+        <v>1.04553029248463</v>
       </c>
       <c r="J20">
-        <v>1.021694061314492</v>
+        <v>1.022054263560454</v>
       </c>
       <c r="K20">
-        <v>1.034343094661667</v>
+        <v>1.034269978296835</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.040476458313277</v>
+        <v>1.040505105923482</v>
       </c>
       <c r="N20">
-        <v>1.010693946993775</v>
+        <v>1.01287571462982</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04064757275517</v>
+        <v>1.040670244294232</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035432552219347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035397360533831</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021375665097309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9886007735690513</v>
+        <v>0.989548901427282</v>
       </c>
       <c r="D21">
-        <v>1.017221497313053</v>
+        <v>1.017648300682748</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.023394542847794</v>
+        <v>1.023815580070931</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044443143563988</v>
+        <v>1.044702917357518</v>
       </c>
       <c r="J21">
-        <v>1.018582945932916</v>
+        <v>1.019490172043981</v>
       </c>
       <c r="K21">
-        <v>1.031883786931253</v>
+        <v>1.032302860757194</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.03794585160801</v>
+        <v>1.038359382584681</v>
       </c>
       <c r="N21">
-        <v>1.009598548365643</v>
+        <v>1.012596211102023</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038603984174914</v>
+        <v>1.038931267005591</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033696965302339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034010103742701</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020953535469949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852013222499494</v>
+        <v>0.9865157886624374</v>
       </c>
       <c r="D22">
-        <v>1.01504296746808</v>
+        <v>1.015790616120313</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.021207790797569</v>
+        <v>1.021880188237104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043764129712891</v>
+        <v>1.044173942591555</v>
       </c>
       <c r="J22">
-        <v>1.016605071565039</v>
+        <v>1.017859442039025</v>
       </c>
       <c r="K22">
-        <v>1.030322196665291</v>
+        <v>1.031055616599265</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.036370508067505</v>
+        <v>1.037030308545022</v>
       </c>
       <c r="N22">
-        <v>1.008904457063263</v>
+        <v>1.012413890998504</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037357201007957</v>
+        <v>1.03787939094629</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03257932595653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033113432344595</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020685761154561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9869943241677545</v>
+        <v>0.9880947728139685</v>
       </c>
       <c r="D23">
-        <v>1.016184957279883</v>
+        <v>1.016747963503764</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.022357936591781</v>
+        <v>1.022884807143083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044117735156373</v>
+        <v>1.044440764210184</v>
       </c>
       <c r="J23">
-        <v>1.017642267573187</v>
+        <v>1.018693917144055</v>
       </c>
       <c r="K23">
-        <v>1.031136914603872</v>
+        <v>1.031689481579334</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.037196252283078</v>
+        <v>1.037713506087265</v>
       </c>
       <c r="N23">
-        <v>1.009265890662783</v>
+        <v>1.012459128289653</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038010724756457</v>
+        <v>1.038420097764559</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033145714479154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033551009844902</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020818272953433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9939259393264598</v>
+        <v>0.9943066262313205</v>
       </c>
       <c r="D24">
-        <v>1.020623524045903</v>
+        <v>1.020554351852747</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.026828338917798</v>
+        <v>1.026861592827257</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045474894842334</v>
+        <v>1.045504220133161</v>
       </c>
       <c r="J24">
-        <v>1.021659826891592</v>
+        <v>1.022025613164693</v>
       </c>
       <c r="K24">
-        <v>1.034297895056147</v>
+        <v>1.034229875287999</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040400148423277</v>
+        <v>1.040432856961053</v>
       </c>
       <c r="N24">
-        <v>1.010669816699797</v>
+        <v>1.012855542828607</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.0405463980463</v>
+        <v>1.040572284658774</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035373172638549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035338920374612</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02135848247713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.001671681486138</v>
+        <v>1.001529749955646</v>
       </c>
       <c r="D25">
-        <v>1.025607193221043</v>
+        <v>1.025033992917744</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.031861992894108</v>
+        <v>1.031514550495912</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046951210163888</v>
+        <v>1.046753735020493</v>
       </c>
       <c r="J25">
-        <v>1.02614291755328</v>
+        <v>1.026005741358911</v>
       </c>
       <c r="K25">
-        <v>1.037820582859508</v>
+        <v>1.037255731900061</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043985037299718</v>
+        <v>1.043642577017649</v>
       </c>
       <c r="N25">
-        <v>1.012235292838028</v>
+        <v>1.013904051322102</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04338359148583</v>
+        <v>1.043112558162038</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037861028999843</v>
+        <v>1.037475176398737</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02201467805783</v>
       </c>
     </row>
   </sheetData>
